--- a/Results/Top10_LSTM_DTW_KNN_HMM.xlsx
+++ b/Results/Top10_LSTM_DTW_KNN_HMM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mhdella\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hhse-my.sharepoint.com/personal/mohamed_abuella_hh_se/Documents/iHelm/CTs4_TSA/TSA_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A31A320-3871-4451-91CE-8877300E8441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{3A31A320-3871-4451-91CE-8877300E8441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F24FEE47-0977-429F-8AAB-893AE5BE749A}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{58FFAE2C-B66C-4842-82C4-6FC33B65541F}"/>
+    <workbookView xWindow="28680" yWindow="-5580" windowWidth="38640" windowHeight="21240" xr2:uid="{58FFAE2C-B66C-4842-82C4-6FC33B65541F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,15 +65,6 @@
     <t>avg</t>
   </si>
   <si>
-    <t>eff_pred_LSTM</t>
-  </si>
-  <si>
-    <t>eff_diff_LSTM</t>
-  </si>
-  <si>
-    <t>eff_gain_LSTM</t>
-  </si>
-  <si>
     <t>eff_pred_DTW</t>
   </si>
   <si>
@@ -102,6 +93,15 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>eff_pred_LSTM</t>
+  </si>
+  <si>
+    <t>eff_diff_LSTM</t>
+  </si>
+  <si>
+    <t>eff_gain_LSTM</t>
   </si>
 </sst>
 </file>
@@ -133,12 +133,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -157,7 +172,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,17 +492,23 @@
   <dimension ref="A1:Q165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:H165"/>
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.83984375" style="1"/>
+    <col min="1" max="4" width="8.81640625" style="1"/>
+    <col min="5" max="5" width="11.1796875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="8.7265625"/>
+    <col min="9" max="9" width="8.81640625" style="1" customWidth="1"/>
+    <col min="10" max="13" width="8.81640625" style="1"/>
+    <col min="14" max="14" width="10.7265625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -499,44 +522,44 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -552,14 +575,14 @@
       <c r="E2" s="1">
         <v>0.60628013316313045</v>
       </c>
-      <c r="F2" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H2" s="5">
-        <v>3.53</v>
+      <c r="F2">
+        <v>0.62514339050762957</v>
+      </c>
+      <c r="G2">
+        <v>1.8863257344499122E-2</v>
+      </c>
+      <c r="H2">
+        <v>3.1113104838326651</v>
       </c>
       <c r="I2" s="1">
         <v>0.62067515840861975</v>
@@ -589,7 +612,7 @@
         <v>4.0278808532145964</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -605,14 +628,14 @@
       <c r="E3" s="1">
         <v>0.69686110945416058</v>
       </c>
-      <c r="F3" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="G3" s="5">
-        <v>-0.02</v>
-      </c>
-      <c r="H3" s="5">
-        <v>-2.4300000000000002</v>
+      <c r="F3">
+        <v>0.68428138920348136</v>
+      </c>
+      <c r="G3">
+        <v>-1.257972025067922E-2</v>
+      </c>
+      <c r="H3">
+        <v>-1.805197632643426</v>
       </c>
       <c r="I3" s="1">
         <v>0.6896757546657013</v>
@@ -642,7 +665,7 @@
         <v>-1.961917558597573</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -658,14 +681,14 @@
       <c r="E4" s="1">
         <v>0.56278524678956354</v>
       </c>
-      <c r="F4" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="H4" s="5">
-        <v>7.32</v>
+      <c r="F4">
+        <v>0.61757428791264968</v>
+      </c>
+      <c r="G4">
+        <v>5.4789041123086142E-2</v>
+      </c>
+      <c r="H4">
+        <v>9.7353371353696545</v>
       </c>
       <c r="I4" s="1">
         <v>0.62233403109358565</v>
@@ -695,7 +718,7 @@
         <v>8.2199900553911291</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -711,14 +734,14 @@
       <c r="E5" s="1">
         <v>0.53730440121598377</v>
       </c>
-      <c r="F5" s="5">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="H5" s="5">
-        <v>6.18</v>
+      <c r="F5">
+        <v>0.57794114159081078</v>
+      </c>
+      <c r="G5">
+        <v>4.0636740374827007E-2</v>
+      </c>
+      <c r="H5">
+        <v>7.5630760296884283</v>
       </c>
       <c r="I5" s="1">
         <v>0.57767367183481344</v>
@@ -748,7 +771,7 @@
         <v>6.6610626376800566</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -764,14 +787,14 @@
       <c r="E6" s="1">
         <v>0.61114526747637654</v>
       </c>
-      <c r="F6" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1.64</v>
+      <c r="F6">
+        <v>0.61973712397608161</v>
+      </c>
+      <c r="G6">
+        <v>8.5918564997050639E-3</v>
+      </c>
+      <c r="H6">
+        <v>1.4058615777528181</v>
       </c>
       <c r="I6" s="1">
         <v>0.62457460126687359</v>
@@ -801,7 +824,7 @@
         <v>0.82347864837321849</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -817,14 +840,14 @@
       <c r="E7" s="1">
         <v>0.66081405103018143</v>
       </c>
-      <c r="F7" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0.71</v>
+      <c r="F7">
+        <v>0.66666762495236309</v>
+      </c>
+      <c r="G7">
+        <v>5.8535739221816652E-3</v>
+      </c>
+      <c r="H7">
+        <v>0.88581256906631878</v>
       </c>
       <c r="I7" s="1">
         <v>0.66203454933130002</v>
@@ -854,7 +877,7 @@
         <v>-0.62593562271548453</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -870,14 +893,14 @@
       <c r="E8" s="1">
         <v>0.67915082677939942</v>
       </c>
-      <c r="F8" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="G8" s="5">
-        <v>-0.02</v>
-      </c>
-      <c r="H8" s="5">
-        <v>-2.72</v>
+      <c r="F8">
+        <v>0.67054155107394775</v>
+      </c>
+      <c r="G8">
+        <v>-8.6092757054516689E-3</v>
+      </c>
+      <c r="H8">
+        <v>-1.267652981632623</v>
       </c>
       <c r="I8" s="1">
         <v>0.67074829088206855</v>
@@ -907,7 +930,7 @@
         <v>-6.3276416824421782</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -923,14 +946,14 @@
       <c r="E9" s="1">
         <v>0.58882509017302442</v>
       </c>
-      <c r="F9" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="H9" s="5">
-        <v>4.6399999999999997</v>
+      <c r="F9">
+        <v>0.61828154998675111</v>
+      </c>
+      <c r="G9">
+        <v>2.9456459813726691E-2</v>
+      </c>
+      <c r="H9">
+        <v>5.0025823126984958</v>
       </c>
       <c r="I9" s="1">
         <v>0.640086968839637</v>
@@ -960,7 +983,7 @@
         <v>17.737327467987601</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -976,14 +999,14 @@
       <c r="E10" s="1">
         <v>0.4844576980906341</v>
       </c>
-      <c r="F10" s="5">
-        <v>0.45</v>
-      </c>
-      <c r="G10" s="5">
-        <v>-0.03</v>
-      </c>
-      <c r="H10" s="5">
-        <v>-6.8</v>
+      <c r="F10">
+        <v>0.42232596069964728</v>
+      </c>
+      <c r="G10">
+        <v>-6.2131737390986763E-2</v>
+      </c>
+      <c r="H10">
+        <v>-12.82500776349784</v>
       </c>
       <c r="I10" s="1">
         <v>0.42583300917411171</v>
@@ -1013,7 +1036,7 @@
         <v>-5.6355825331404654</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1029,14 +1052,14 @@
       <c r="E11" s="1">
         <v>0.64462036753921192</v>
       </c>
-      <c r="F11" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H11" s="5">
-        <v>3.32</v>
+      <c r="F11">
+        <v>0.66667316084036765</v>
+      </c>
+      <c r="G11">
+        <v>2.205279330115573E-2</v>
+      </c>
+      <c r="H11">
+        <v>3.4210512747744142</v>
       </c>
       <c r="I11" s="1">
         <v>0.65853798187981505</v>
@@ -1066,7 +1089,7 @@
         <v>7.1000773219362951</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1082,14 +1105,14 @@
       <c r="E12" s="1">
         <v>0.53279770809065452</v>
       </c>
-      <c r="F12" s="5">
-        <v>0.49</v>
-      </c>
-      <c r="G12" s="5">
-        <v>-0.04</v>
-      </c>
-      <c r="H12" s="5">
-        <v>-7.9</v>
+      <c r="F12">
+        <v>0.5642519808013291</v>
+      </c>
+      <c r="G12">
+        <v>3.145427271067458E-2</v>
+      </c>
+      <c r="H12">
+        <v>5.9036051080990566</v>
       </c>
       <c r="I12" s="1">
         <v>0.54644974061640506</v>
@@ -1119,7 +1142,7 @@
         <v>19.142177415053951</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1135,14 +1158,14 @@
       <c r="E13" s="1">
         <v>0.69301574150564305</v>
       </c>
-      <c r="F13" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H13" s="5">
-        <v>1.62</v>
+      <c r="F13">
+        <v>0.70659678584783736</v>
+      </c>
+      <c r="G13">
+        <v>1.358104434219431E-2</v>
+      </c>
+      <c r="H13">
+        <v>1.959702143661008</v>
       </c>
       <c r="I13" s="1">
         <v>0.69593888212411614</v>
@@ -1172,7 +1195,7 @@
         <v>4.1448036917539222</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1188,14 +1211,14 @@
       <c r="E14" s="1">
         <v>0.67092714588436642</v>
       </c>
-      <c r="F14" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="G14" s="5">
-        <v>-0.01</v>
-      </c>
-      <c r="H14" s="5">
-        <v>-0.98</v>
+      <c r="F14">
+        <v>0.66889394418550063</v>
+      </c>
+      <c r="G14">
+        <v>-2.0332016988657831E-3</v>
+      </c>
+      <c r="H14">
+        <v>-0.30304358846380658</v>
       </c>
       <c r="I14" s="1">
         <v>0.6665095728942374</v>
@@ -1225,7 +1248,7 @@
         <v>-1.250613109294255</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1241,14 +1264,14 @@
       <c r="E15" s="1">
         <v>0.64979060438806702</v>
       </c>
-      <c r="F15" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H15" s="5">
-        <v>2.11</v>
+      <c r="F15">
+        <v>0.66497387455796453</v>
+      </c>
+      <c r="G15">
+        <v>1.518327016989751E-2</v>
+      </c>
+      <c r="H15">
+        <v>2.3366404603827999</v>
       </c>
       <c r="I15" s="1">
         <v>0.67446115618910096</v>
@@ -1278,7 +1301,7 @@
         <v>2.6430465170789792</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1294,14 +1317,14 @@
       <c r="E16" s="1">
         <v>0.62713595609170447</v>
       </c>
-      <c r="F16" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="G16" s="5">
-        <v>-0.01</v>
-      </c>
-      <c r="H16" s="5">
-        <v>-1.78</v>
+      <c r="F16">
+        <v>0.62367733958830684</v>
+      </c>
+      <c r="G16">
+        <v>-3.4586165033976268E-3</v>
+      </c>
+      <c r="H16">
+        <v>-0.55149389375656888</v>
       </c>
       <c r="I16" s="1">
         <v>0.62357889730002203</v>
@@ -1331,7 +1354,7 @@
         <v>-2.110398913161827</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1347,14 +1370,14 @@
       <c r="E17" s="1">
         <v>0.63162649371471136</v>
       </c>
-      <c r="F17" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5">
-        <v>-0.27</v>
+      <c r="F17">
+        <v>0.63436652859333909</v>
+      </c>
+      <c r="G17">
+        <v>2.740034878627728E-3</v>
+      </c>
+      <c r="H17">
+        <v>0.43380619810816989</v>
       </c>
       <c r="I17" s="1">
         <v>0.60858677797193272</v>
@@ -1384,7 +1407,7 @@
         <v>5.9926667876826798</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1400,14 +1423,14 @@
       <c r="E18" s="1">
         <v>0.56082710971394678</v>
       </c>
-      <c r="F18" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H18" s="5">
-        <v>3.78</v>
+      <c r="F18">
+        <v>0.59361211435565964</v>
+      </c>
+      <c r="G18">
+        <v>3.2785004641712863E-2</v>
+      </c>
+      <c r="H18">
+        <v>5.8458309296843796</v>
       </c>
       <c r="I18" s="1">
         <v>0.59437757914676204</v>
@@ -1437,7 +1460,7 @@
         <v>2.7291446880709258</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1453,14 +1476,14 @@
       <c r="E19" s="1">
         <v>0.60480736001534385</v>
       </c>
-      <c r="F19" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H19" s="5">
-        <v>2.0099999999999998</v>
+      <c r="F19">
+        <v>0.61703792013216863</v>
+      </c>
+      <c r="G19">
+        <v>1.223056011682477E-2</v>
+      </c>
+      <c r="H19">
+        <v>2.0222240874374422</v>
       </c>
       <c r="I19" s="1">
         <v>0.60800267366930438</v>
@@ -1490,7 +1513,7 @@
         <v>10.71680151640423</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1506,14 +1529,14 @@
       <c r="E20" s="1">
         <v>0.57695643811173392</v>
       </c>
-      <c r="F20" s="5">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G20" s="5">
-        <v>-0.01</v>
-      </c>
-      <c r="H20" s="5">
-        <v>-1.94</v>
+      <c r="F20">
+        <v>0.60793524168593638</v>
+      </c>
+      <c r="G20">
+        <v>3.0978803574202459E-2</v>
+      </c>
+      <c r="H20">
+        <v>5.3693487979075254</v>
       </c>
       <c r="I20" s="1">
         <v>0.64856297982169941</v>
@@ -1543,7 +1566,7 @@
         <v>13.40881603585818</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1559,14 +1582,14 @@
       <c r="E21" s="1">
         <v>0.50658417295366998</v>
       </c>
-      <c r="F21" s="5">
-        <v>0.47</v>
-      </c>
-      <c r="G21" s="5">
-        <v>-0.04</v>
-      </c>
-      <c r="H21" s="5">
-        <v>-7.84</v>
+      <c r="F21">
+        <v>0.47642771677629908</v>
+      </c>
+      <c r="G21">
+        <v>-3.0156456177370838E-2</v>
+      </c>
+      <c r="H21">
+        <v>-5.9529013710676706</v>
       </c>
       <c r="I21" s="1">
         <v>0.52169692225430486</v>
@@ -1596,7 +1619,7 @@
         <v>7.7643518236413938</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1612,14 +1635,14 @@
       <c r="E22" s="1">
         <v>0.64147840943348122</v>
       </c>
-      <c r="F22" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H22" s="5">
-        <v>2.59</v>
+      <c r="F22">
+        <v>0.64708330941691761</v>
+      </c>
+      <c r="G22">
+        <v>5.6048999834363844E-3</v>
+      </c>
+      <c r="H22">
+        <v>0.87374725337776016</v>
       </c>
       <c r="I22" s="1">
         <v>0.65778039682237255</v>
@@ -1649,7 +1672,7 @@
         <v>0.84823454232656659</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1665,14 +1688,14 @@
       <c r="E23" s="1">
         <v>0.56512828828382089</v>
       </c>
-      <c r="F23" s="5">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1.55</v>
+      <c r="F23">
+        <v>0.57121498226624157</v>
+      </c>
+      <c r="G23">
+        <v>6.0866939824206767E-3</v>
+      </c>
+      <c r="H23">
+        <v>1.077046417355026</v>
       </c>
       <c r="I23" s="1">
         <v>0.56551848427035845</v>
@@ -1702,7 +1725,7 @@
         <v>17.589972545260078</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1718,14 +1741,14 @@
       <c r="E24" s="1">
         <v>0.53411248805065914</v>
       </c>
-      <c r="F24" s="5">
-        <v>0.54</v>
-      </c>
-      <c r="G24" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H24" s="5">
-        <v>1.85</v>
+      <c r="F24">
+        <v>0.54803270754249445</v>
+      </c>
+      <c r="G24">
+        <v>1.392021949183531E-2</v>
+      </c>
+      <c r="H24">
+        <v>2.6062336686115848</v>
       </c>
       <c r="I24" s="1">
         <v>0.56448584667263346</v>
@@ -1755,7 +1778,7 @@
         <v>16.097942630496039</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -1771,14 +1794,14 @@
       <c r="E25" s="1">
         <v>0.54422022671141979</v>
       </c>
-      <c r="F25" s="5">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H25" s="5">
-        <v>3.94</v>
+      <c r="F25">
+        <v>0.56605859013210247</v>
+      </c>
+      <c r="G25">
+        <v>2.1838363420682679E-2</v>
+      </c>
+      <c r="H25">
+        <v>4.0127805525800078</v>
       </c>
       <c r="I25" s="1">
         <v>0.56201684101188576</v>
@@ -1808,7 +1831,7 @@
         <v>5.206010702153022</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -1824,14 +1847,14 @@
       <c r="E26" s="1">
         <v>0.6139539399302445</v>
       </c>
-      <c r="F26" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="G26" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="H26" s="5">
-        <v>4.37</v>
+      <c r="F26">
+        <v>0.63739319219949175</v>
+      </c>
+      <c r="G26">
+        <v>2.3439252269247261E-2</v>
+      </c>
+      <c r="H26">
+        <v>3.817754190470763</v>
       </c>
       <c r="I26" s="1">
         <v>0.63473862835191608</v>
@@ -1861,7 +1884,7 @@
         <v>4.3537420522977506</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1877,14 +1900,14 @@
       <c r="E27" s="1">
         <v>0.53060334069055937</v>
       </c>
-      <c r="F27" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G27" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="H27" s="5">
-        <v>9.3699999999999992</v>
+      <c r="F27">
+        <v>0.5770590791786756</v>
+      </c>
+      <c r="G27">
+        <v>4.6455738488116238E-2</v>
+      </c>
+      <c r="H27">
+        <v>8.7552668680253554</v>
       </c>
       <c r="I27" s="1">
         <v>0.57707228887608808</v>
@@ -1914,7 +1937,7 @@
         <v>24.694617005571189</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -1930,14 +1953,14 @@
       <c r="E28" s="1">
         <v>0.599972662055132</v>
       </c>
-      <c r="F28" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="G28" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H28" s="5">
-        <v>2.57</v>
+      <c r="F28">
+        <v>0.61621707571743123</v>
+      </c>
+      <c r="G28">
+        <v>1.6244413662299229E-2</v>
+      </c>
+      <c r="H28">
+        <v>2.707525640694362</v>
       </c>
       <c r="I28" s="1">
         <v>0.60242581911249404</v>
@@ -1967,7 +1990,7 @@
         <v>3.1420459055460261</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -1983,14 +2006,14 @@
       <c r="E29" s="1">
         <v>0.65143308390958066</v>
       </c>
-      <c r="F29" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="G29" s="5">
-        <v>-0.03</v>
-      </c>
-      <c r="H29" s="5">
-        <v>-4.7699999999999996</v>
+      <c r="F29">
+        <v>0.64324350296744248</v>
+      </c>
+      <c r="G29">
+        <v>-8.1895809421381749E-3</v>
+      </c>
+      <c r="H29">
+        <v>-1.2571638046057381</v>
       </c>
       <c r="I29" s="1">
         <v>0.64660134042214656</v>
@@ -2020,7 +2043,7 @@
         <v>-3.8962620054934471</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -2036,14 +2059,14 @@
       <c r="E30" s="1">
         <v>0.6638677373849764</v>
       </c>
-      <c r="F30" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="G30" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H30" s="5">
-        <v>1.87</v>
+      <c r="F30">
+        <v>0.6789519649465523</v>
+      </c>
+      <c r="G30">
+        <v>1.5084227561575901E-2</v>
+      </c>
+      <c r="H30">
+        <v>2.27217361412889</v>
       </c>
       <c r="I30" s="1">
         <v>0.68822582790428066</v>
@@ -2073,7 +2096,7 @@
         <v>2.3453068631439988</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -2089,14 +2112,14 @@
       <c r="E31" s="1">
         <v>0.56378082252094619</v>
       </c>
-      <c r="F31" s="5">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G31" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H31" s="5">
-        <v>1.5</v>
+      <c r="F31">
+        <v>0.58210167306285976</v>
+      </c>
+      <c r="G31">
+        <v>1.8320850541913569E-2</v>
+      </c>
+      <c r="H31">
+        <v>3.2496406067861399</v>
       </c>
       <c r="I31" s="1">
         <v>0.59049933629429507</v>
@@ -2126,7 +2149,7 @@
         <v>2.9790687321118949</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -2142,14 +2165,14 @@
       <c r="E32" s="1">
         <v>0.59354568897725146</v>
       </c>
-      <c r="F32" s="5">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G32" s="5">
-        <v>-0.04</v>
-      </c>
-      <c r="H32" s="5">
-        <v>-6.27</v>
+      <c r="F32">
+        <v>0.62433616457607943</v>
+      </c>
+      <c r="G32">
+        <v>3.0790475598827971E-2</v>
+      </c>
+      <c r="H32">
+        <v>5.1875493615131054</v>
       </c>
       <c r="I32" s="1">
         <v>0.64682036687934441</v>
@@ -2179,7 +2202,7 @@
         <v>15.065716354401721</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -2195,14 +2218,14 @@
       <c r="E33" s="1">
         <v>0.63202226226738967</v>
       </c>
-      <c r="F33" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="G33" s="5">
-        <v>-0.01</v>
-      </c>
-      <c r="H33" s="5">
-        <v>-1.01</v>
+      <c r="F33">
+        <v>0.62803201021004584</v>
+      </c>
+      <c r="G33">
+        <v>-3.9902520573438238E-3</v>
+      </c>
+      <c r="H33">
+        <v>-0.63134675715832111</v>
       </c>
       <c r="I33" s="1">
         <v>0.60793858718568727</v>
@@ -2232,7 +2255,7 @@
         <v>3.588077957895897</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -2248,14 +2271,14 @@
       <c r="E34" s="1">
         <v>0.56590332826740342</v>
       </c>
-      <c r="F34" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G34" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H34" s="5">
-        <v>2.79</v>
+      <c r="F34">
+        <v>0.58399065846253961</v>
+      </c>
+      <c r="G34">
+        <v>1.8087330195136201E-2</v>
+      </c>
+      <c r="H34">
+        <v>3.1961872799923672</v>
       </c>
       <c r="I34" s="1">
         <v>0.58645340877420238</v>
@@ -2285,7 +2308,7 @@
         <v>3.325760485990656</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -2301,14 +2324,14 @@
       <c r="E35" s="1">
         <v>0.63071289377913609</v>
       </c>
-      <c r="F35" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="G35" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H35" s="5">
-        <v>2.97</v>
+      <c r="F35">
+        <v>0.64968906011938721</v>
+      </c>
+      <c r="G35">
+        <v>1.8976166340251122E-2</v>
+      </c>
+      <c r="H35">
+        <v>3.0086853348674718</v>
       </c>
       <c r="I35" s="1">
         <v>0.63563500397029427</v>
@@ -2338,7 +2361,7 @@
         <v>6.1604450527568329</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -2354,14 +2377,14 @@
       <c r="E36" s="1">
         <v>0.64716472371618994</v>
       </c>
-      <c r="F36" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="G36" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H36" s="5">
-        <v>1.69</v>
+      <c r="F36">
+        <v>0.6642089620144862</v>
+      </c>
+      <c r="G36">
+        <v>1.7044238298296269E-2</v>
+      </c>
+      <c r="H36">
+        <v>2.633678517027902</v>
       </c>
       <c r="I36" s="1">
         <v>0.66497263983853006</v>
@@ -2391,7 +2414,7 @@
         <v>2.2493688381983712</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -2407,14 +2430,14 @@
       <c r="E37" s="1">
         <v>0.59858041234843973</v>
       </c>
-      <c r="F37" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="G37" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H37" s="5">
-        <v>3.26</v>
+      <c r="F37">
+        <v>0.61674925669724168</v>
+      </c>
+      <c r="G37">
+        <v>1.8168844348801949E-2</v>
+      </c>
+      <c r="H37">
+        <v>3.03532223473856</v>
       </c>
       <c r="I37" s="1">
         <v>0.62549052682209116</v>
@@ -2444,7 +2467,7 @@
         <v>2.3545183609157392</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -2460,14 +2483,14 @@
       <c r="E38" s="1">
         <v>0.55396471242833201</v>
       </c>
-      <c r="F38" s="5">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G38" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H38" s="5">
-        <v>3.62</v>
+      <c r="F38">
+        <v>0.54119226353549066</v>
+      </c>
+      <c r="G38">
+        <v>-1.277244889284135E-2</v>
+      </c>
+      <c r="H38">
+        <v>-2.3056430502319691</v>
       </c>
       <c r="I38" s="1">
         <v>0.58647320826640614</v>
@@ -2497,7 +2520,7 @@
         <v>6.3542166543919061</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -2513,14 +2536,14 @@
       <c r="E39" s="1">
         <v>0.61142702943566496</v>
       </c>
-      <c r="F39" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="G39" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H39" s="5">
-        <v>1.8</v>
+      <c r="F39">
+        <v>0.6493265804294055</v>
+      </c>
+      <c r="G39">
+        <v>3.7899550993740538E-2</v>
+      </c>
+      <c r="H39">
+        <v>6.1985403276530109</v>
       </c>
       <c r="I39" s="1">
         <v>0.67269331067824589</v>
@@ -2550,7 +2573,7 @@
         <v>13.96261372203497</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -2566,14 +2589,14 @@
       <c r="E40" s="1">
         <v>0.59174827850693612</v>
       </c>
-      <c r="F40" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="G40" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H40" s="5">
-        <v>2.1</v>
+      <c r="F40">
+        <v>0.60780725280260239</v>
+      </c>
+      <c r="G40">
+        <v>1.6058974295666269E-2</v>
+      </c>
+      <c r="H40">
+        <v>2.7138185067788139</v>
       </c>
       <c r="I40" s="1">
         <v>0.60018844707445607</v>
@@ -2603,7 +2626,7 @@
         <v>2.4288836935253242</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -2619,14 +2642,14 @@
       <c r="E41" s="1">
         <v>0.52595334555044859</v>
       </c>
-      <c r="F41" s="5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G41" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H41" s="5">
-        <v>4.5</v>
+      <c r="F41">
+        <v>0.55764600445075962</v>
+      </c>
+      <c r="G41">
+        <v>3.1692658900311033E-2</v>
+      </c>
+      <c r="H41">
+        <v>6.0257547876499107</v>
       </c>
       <c r="I41" s="1">
         <v>0.57015806084890053</v>
@@ -2656,7 +2679,7 @@
         <v>6.4494716105572651</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -2672,14 +2695,14 @@
       <c r="E42" s="1">
         <v>0.58770320432907563</v>
       </c>
-      <c r="F42" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="G42" s="5">
-        <v>0</v>
-      </c>
-      <c r="H42" s="5">
-        <v>-0.14000000000000001</v>
+      <c r="F42">
+        <v>0.58897792245026015</v>
+      </c>
+      <c r="G42">
+        <v>1.2747181211845151E-3</v>
+      </c>
+      <c r="H42">
+        <v>0.21689827651012011</v>
       </c>
       <c r="I42" s="1">
         <v>0.59490214312014966</v>
@@ -2709,7 +2732,7 @@
         <v>3.778459565999587</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -2725,14 +2748,14 @@
       <c r="E43" s="1">
         <v>0.58552429504725556</v>
       </c>
-      <c r="F43" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="G43" s="5">
-        <v>0</v>
-      </c>
-      <c r="H43" s="5">
-        <v>0.03</v>
+      <c r="F43">
+        <v>0.57675546133724309</v>
+      </c>
+      <c r="G43">
+        <v>-8.7688337100124691E-3</v>
+      </c>
+      <c r="H43">
+        <v>-1.497603734667367</v>
       </c>
       <c r="I43" s="1">
         <v>0.5923331362147386</v>
@@ -2762,7 +2785,7 @@
         <v>2.021812308594682</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -2778,14 +2801,14 @@
       <c r="E44" s="1">
         <v>0.63962319153374991</v>
       </c>
-      <c r="F44" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="G44" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H44" s="5">
-        <v>1.51</v>
+      <c r="F44">
+        <v>0.6513403126894628</v>
+      </c>
+      <c r="G44">
+        <v>1.1717121155712881E-2</v>
+      </c>
+      <c r="H44">
+        <v>1.831878723411583</v>
       </c>
       <c r="I44" s="1">
         <v>0.63335543524288962</v>
@@ -2815,7 +2838,7 @@
         <v>2.0404289986731898</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -2831,14 +2854,14 @@
       <c r="E45" s="1">
         <v>0.63875869357114901</v>
       </c>
-      <c r="F45" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="G45" s="5">
-        <v>0</v>
-      </c>
-      <c r="H45" s="5">
-        <v>0.73</v>
+      <c r="F45">
+        <v>0.64664156553631691</v>
+      </c>
+      <c r="G45">
+        <v>7.8828719651679036E-3</v>
+      </c>
+      <c r="H45">
+        <v>1.234092317569351</v>
       </c>
       <c r="I45" s="1">
         <v>0.64518342028879438</v>
@@ -2868,7 +2891,7 @@
         <v>-0.49458921905474879</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -2884,14 +2907,14 @@
       <c r="E46" s="1">
         <v>0.65016736698880273</v>
       </c>
-      <c r="F46" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="G46" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H46" s="5">
-        <v>1.89</v>
+      <c r="F46">
+        <v>0.66301831589685434</v>
+      </c>
+      <c r="G46">
+        <v>1.2850948908051611E-2</v>
+      </c>
+      <c r="H46">
+        <v>1.9765601229064651</v>
       </c>
       <c r="I46" s="1">
         <v>0.6583162635811064</v>
@@ -2921,7 +2944,7 @@
         <v>7.4817340865778821</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -2937,14 +2960,14 @@
       <c r="E47" s="1">
         <v>0.54147583520670417</v>
       </c>
-      <c r="F47" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G47" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="H47" s="5">
-        <v>7.87</v>
+      <c r="F47">
+        <v>0.58202308450439144</v>
+      </c>
+      <c r="G47">
+        <v>4.0547249297687271E-2</v>
+      </c>
+      <c r="H47">
+        <v>7.4882841784081968</v>
       </c>
       <c r="I47" s="1">
         <v>0.57956920524230382</v>
@@ -2974,7 +2997,7 @@
         <v>15.77891633094964</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -2990,14 +3013,14 @@
       <c r="E48" s="1">
         <v>0.55527170400274273</v>
       </c>
-      <c r="F48" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="G48" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="H48" s="5">
-        <v>8.0299999999999994</v>
+      <c r="F48">
+        <v>0.61031253264237906</v>
+      </c>
+      <c r="G48">
+        <v>5.504082863963633E-2</v>
+      </c>
+      <c r="H48">
+        <v>9.9124137323886501</v>
       </c>
       <c r="I48" s="1">
         <v>0.62398462024957313</v>
@@ -3027,7 +3050,7 @@
         <v>4.9874352363887393</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -3043,14 +3066,14 @@
       <c r="E49" s="1">
         <v>0.5724035447339948</v>
       </c>
-      <c r="F49" s="5">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G49" s="5">
-        <v>0</v>
-      </c>
-      <c r="H49" s="5">
-        <v>-0.65</v>
+      <c r="F49">
+        <v>0.56531911488533426</v>
+      </c>
+      <c r="G49">
+        <v>-7.0844298486605339E-3</v>
+      </c>
+      <c r="H49">
+        <v>-1.2376635179561619</v>
       </c>
       <c r="I49" s="1">
         <v>0.56380877736648805</v>
@@ -3080,7 +3103,7 @@
         <v>-0.39285311934994371</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -3096,14 +3119,14 @@
       <c r="E50" s="1">
         <v>0.61089724597209694</v>
       </c>
-      <c r="F50" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="G50" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H50" s="5">
-        <v>2.79</v>
+      <c r="F50">
+        <v>0.62348515469704924</v>
+      </c>
+      <c r="G50">
+        <v>1.25879087249523E-2</v>
+      </c>
+      <c r="H50">
+        <v>2.0605607257111882</v>
       </c>
       <c r="I50" s="1">
         <v>0.63535381626727472</v>
@@ -3133,7 +3156,7 @@
         <v>6.3008854029492882</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -3149,14 +3172,14 @@
       <c r="E51" s="1">
         <v>0.62531298714597516</v>
       </c>
-      <c r="F51" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="G51" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H51" s="5">
-        <v>2.93</v>
+      <c r="F51">
+        <v>0.64455877441704557</v>
+      </c>
+      <c r="G51">
+        <v>1.9245787271070399E-2</v>
+      </c>
+      <c r="H51">
+        <v>3.0777846721065472</v>
       </c>
       <c r="I51" s="1">
         <v>0.61834292632866916</v>
@@ -3186,7 +3209,7 @@
         <v>10.27499722357356</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -3202,14 +3225,14 @@
       <c r="E52" s="1">
         <v>0.63200757764391002</v>
       </c>
-      <c r="F52" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="G52" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H52" s="5">
-        <v>3.47</v>
+      <c r="F52">
+        <v>0.65053817295958016</v>
+      </c>
+      <c r="G52">
+        <v>1.853059531567014E-2</v>
+      </c>
+      <c r="H52">
+        <v>2.932021066068732</v>
       </c>
       <c r="I52" s="1">
         <v>0.64425192535680498</v>
@@ -3239,7 +3262,7 @@
         <v>9.3797894831551591</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -3255,14 +3278,14 @@
       <c r="E53" s="1">
         <v>0.552791525227736</v>
       </c>
-      <c r="F53" s="5">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G53" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H53" s="5">
-        <v>1.21</v>
+      <c r="F53">
+        <v>0.56697271466774646</v>
+      </c>
+      <c r="G53">
+        <v>1.4181189440010461E-2</v>
+      </c>
+      <c r="H53">
+        <v>2.5653775054109542</v>
       </c>
       <c r="I53" s="1">
         <v>0.55066620113069775</v>
@@ -3292,7 +3315,7 @@
         <v>1.7165568288928801</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -3308,14 +3331,14 @@
       <c r="E54" s="1">
         <v>0.61596827644716989</v>
       </c>
-      <c r="F54" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="G54" s="5">
-        <v>0</v>
-      </c>
-      <c r="H54" s="5">
-        <v>0.7</v>
+      <c r="F54">
+        <v>0.62842692221800456</v>
+      </c>
+      <c r="G54">
+        <v>1.2458645770834661E-2</v>
+      </c>
+      <c r="H54">
+        <v>2.022611593359096</v>
       </c>
       <c r="I54" s="1">
         <v>0.63239761067965605</v>
@@ -3345,7 +3368,7 @@
         <v>1.3154836301414741</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -3361,14 +3384,14 @@
       <c r="E55" s="1">
         <v>0.58896603362996547</v>
       </c>
-      <c r="F55" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="G55" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H55" s="5">
-        <v>2.25</v>
+      <c r="F55">
+        <v>0.59332651412579418</v>
+      </c>
+      <c r="G55">
+        <v>4.3604804958287113E-3</v>
+      </c>
+      <c r="H55">
+        <v>0.74036196433159784</v>
       </c>
       <c r="I55" s="1">
         <v>0.56280621582141244</v>
@@ -3398,7 +3421,7 @@
         <v>2.8133239948882531</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -3414,14 +3437,14 @@
       <c r="E56" s="1">
         <v>0.66943623196188085</v>
       </c>
-      <c r="F56" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="G56" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H56" s="5">
-        <v>2.09</v>
+      <c r="F56">
+        <v>0.68334460440342515</v>
+      </c>
+      <c r="G56">
+        <v>1.39083724415443E-2</v>
+      </c>
+      <c r="H56">
+        <v>2.0776246903732392</v>
       </c>
       <c r="I56" s="1">
         <v>0.68526182486914</v>
@@ -3451,7 +3474,7 @@
         <v>2.570477847269891</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -3467,14 +3490,14 @@
       <c r="E57" s="1">
         <v>0.57470508719839064</v>
       </c>
-      <c r="F57" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="G57" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H57" s="5">
-        <v>2.11</v>
+      <c r="F57">
+        <v>0.58357776693693986</v>
+      </c>
+      <c r="G57">
+        <v>8.8726797385492162E-3</v>
+      </c>
+      <c r="H57">
+        <v>1.5438665736895301</v>
       </c>
       <c r="I57" s="1">
         <v>0.59428821929470765</v>
@@ -3504,7 +3527,7 @@
         <v>3.8503937133546069</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -3520,14 +3543,14 @@
       <c r="E58" s="1">
         <v>0.6003871488579865</v>
       </c>
-      <c r="F58" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="G58" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="H58" s="5">
-        <v>5.29</v>
+      <c r="F58">
+        <v>0.62734972771793251</v>
+      </c>
+      <c r="G58">
+        <v>2.6962578859946022E-2</v>
+      </c>
+      <c r="H58">
+        <v>4.4908654209591772</v>
       </c>
       <c r="I58" s="1">
         <v>0.63076357389383786</v>
@@ -3557,7 +3580,7 @@
         <v>5.837085553801745</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -3573,14 +3596,14 @@
       <c r="E59" s="1">
         <v>0.5563209674783004</v>
       </c>
-      <c r="F59" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="G59" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="H59" s="5">
-        <v>7.22</v>
+      <c r="F59">
+        <v>0.60546844371874586</v>
+      </c>
+      <c r="G59">
+        <v>4.9147476240445458E-2</v>
+      </c>
+      <c r="H59">
+        <v>8.8343742396088079</v>
       </c>
       <c r="I59" s="1">
         <v>0.57268335735964238</v>
@@ -3610,7 +3633,7 @@
         <v>3.4679590015316091</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -3626,14 +3649,14 @@
       <c r="E60" s="1">
         <v>0.66768023390299991</v>
       </c>
-      <c r="F60" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="G60" s="5">
-        <v>-0.01</v>
-      </c>
-      <c r="H60" s="5">
-        <v>-1.47</v>
+      <c r="F60">
+        <v>0.65946299365207817</v>
+      </c>
+      <c r="G60">
+        <v>-8.2172402509217424E-3</v>
+      </c>
+      <c r="H60">
+        <v>-1.2307149191592719</v>
       </c>
       <c r="I60" s="1">
         <v>0.66473063222277551</v>
@@ -3663,7 +3686,7 @@
         <v>4.275448861189294</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -3679,14 +3702,14 @@
       <c r="E61" s="1">
         <v>0.597944994463808</v>
       </c>
-      <c r="F61" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="G61" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="H61" s="5">
-        <v>5.16</v>
+      <c r="F61">
+        <v>0.6261759660065126</v>
+      </c>
+      <c r="G61">
+        <v>2.8230971542704601E-2</v>
+      </c>
+      <c r="H61">
+        <v>4.721332531267362</v>
       </c>
       <c r="I61" s="1">
         <v>0.61795997218240539</v>
@@ -3716,7 +3739,7 @@
         <v>5.2763165691466254</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -3732,14 +3755,14 @@
       <c r="E62" s="1">
         <v>0.58803198999576023</v>
       </c>
-      <c r="F62" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="G62" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H62" s="5">
-        <v>2.73</v>
+      <c r="F62">
+        <v>0.61095258970062516</v>
+      </c>
+      <c r="G62">
+        <v>2.292059970486493E-2</v>
+      </c>
+      <c r="H62">
+        <v>3.897849112771941</v>
       </c>
       <c r="I62" s="1">
         <v>0.61550262557597635</v>
@@ -3769,7 +3792,7 @@
         <v>4.6007744431295521</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -3785,14 +3808,14 @@
       <c r="E63" s="1">
         <v>0.62077573882610437</v>
       </c>
-      <c r="F63" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="G63" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H63" s="5">
-        <v>2.63</v>
+      <c r="F63">
+        <v>0.64025210766139395</v>
+      </c>
+      <c r="G63">
+        <v>1.9476368835289581E-2</v>
+      </c>
+      <c r="H63">
+        <v>3.1374242930498011</v>
       </c>
       <c r="I63" s="1">
         <v>0.62191956359495881</v>
@@ -3822,7 +3845,7 @@
         <v>3.1376622515817858</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -3838,14 +3861,14 @@
       <c r="E64" s="1">
         <v>0.54378518447839308</v>
       </c>
-      <c r="F64" s="5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G64" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H64" s="5">
-        <v>1.59</v>
+      <c r="F64">
+        <v>0.5643475699952798</v>
+      </c>
+      <c r="G64">
+        <v>2.056238551688672E-2</v>
+      </c>
+      <c r="H64">
+        <v>3.7813434613174439</v>
       </c>
       <c r="I64" s="1">
         <v>0.56749144375676175</v>
@@ -3875,7 +3898,7 @@
         <v>5.6896209011489827</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -3891,14 +3914,14 @@
       <c r="E65" s="1">
         <v>0.63959691002467878</v>
       </c>
-      <c r="F65" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="G65" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H65" s="5">
-        <v>2.4300000000000002</v>
+      <c r="F65">
+        <v>0.65393295870879065</v>
+      </c>
+      <c r="G65">
+        <v>1.433604868411187E-2</v>
+      </c>
+      <c r="H65">
+        <v>2.2414193157310152</v>
       </c>
       <c r="I65" s="1">
         <v>0.66133037502632042</v>
@@ -3928,7 +3951,7 @@
         <v>7.7801189921686538</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -3944,14 +3967,14 @@
       <c r="E66" s="1">
         <v>0.66530953293040818</v>
       </c>
-      <c r="F66" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="G66" s="5">
-        <v>-0.08</v>
-      </c>
-      <c r="H66" s="5">
-        <v>-12.04</v>
+      <c r="F66">
+        <v>0.63333142044638513</v>
+      </c>
+      <c r="G66">
+        <v>-3.1978112484023047E-2</v>
+      </c>
+      <c r="H66">
+        <v>-4.8065014705520506</v>
       </c>
       <c r="I66" s="1">
         <v>0.65144336065018082</v>
@@ -3981,7 +4004,7 @@
         <v>-7.6994365693317164</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -3997,14 +4020,14 @@
       <c r="E67" s="1">
         <v>0.64914326425900204</v>
       </c>
-      <c r="F67" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="G67" s="5">
-        <v>0</v>
-      </c>
-      <c r="H67" s="5">
-        <v>-0.1</v>
+      <c r="F67">
+        <v>0.65974034258664482</v>
+      </c>
+      <c r="G67">
+        <v>1.059707832764278E-2</v>
+      </c>
+      <c r="H67">
+        <v>1.6324714298220999</v>
       </c>
       <c r="I67" s="1">
         <v>0.68489255769972823</v>
@@ -4034,7 +4057,7 @@
         <v>-4.9758438509438871</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -4050,14 +4073,14 @@
       <c r="E68" s="1">
         <v>0.4632702732186883</v>
       </c>
-      <c r="F68" s="5">
-        <v>0.47</v>
-      </c>
-      <c r="G68" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H68" s="5">
-        <v>2.1800000000000002</v>
+      <c r="F68">
+        <v>0.48827514101338598</v>
+      </c>
+      <c r="G68">
+        <v>2.5004867794697679E-2</v>
+      </c>
+      <c r="H68">
+        <v>5.3974686571124</v>
       </c>
       <c r="I68" s="1">
         <v>0.54304848504387637</v>
@@ -4087,7 +4110,7 @@
         <v>14.91237205726978</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -4103,14 +4126,14 @@
       <c r="E69" s="1">
         <v>0.5667314691310702</v>
       </c>
-      <c r="F69" s="5">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G69" s="5">
-        <v>0</v>
-      </c>
-      <c r="H69" s="5">
-        <v>-0.25</v>
+      <c r="F69">
+        <v>0.54570933719652115</v>
+      </c>
+      <c r="G69">
+        <v>-2.1022131934549049E-2</v>
+      </c>
+      <c r="H69">
+        <v>-3.7093637956580769</v>
       </c>
       <c r="I69" s="1">
         <v>0.59146213174701812</v>
@@ -4140,7 +4163,7 @@
         <v>1.8654478564095061</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -4156,14 +4179,14 @@
       <c r="E70" s="1">
         <v>0.60292184229615331</v>
       </c>
-      <c r="F70" s="5">
-        <v>0.61</v>
-      </c>
-      <c r="G70" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H70" s="5">
-        <v>1.82</v>
+      <c r="F70">
+        <v>0.61719302155312805</v>
+      </c>
+      <c r="G70">
+        <v>1.427117925697474E-2</v>
+      </c>
+      <c r="H70">
+        <v>2.3670031927562478</v>
       </c>
       <c r="I70" s="1">
         <v>0.63262234308647525</v>
@@ -4193,7 +4216,7 @@
         <v>2.320561694617282</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -4209,14 +4232,14 @@
       <c r="E71" s="1">
         <v>0.66868082892100067</v>
       </c>
-      <c r="F71" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="G71" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H71" s="5">
-        <v>2.0699999999999998</v>
+      <c r="F71">
+        <v>0.68671250646990267</v>
+      </c>
+      <c r="G71">
+        <v>1.8031677548902E-2</v>
+      </c>
+      <c r="H71">
+        <v>2.6966045337352269</v>
       </c>
       <c r="I71" s="1">
         <v>0.6783273641422477</v>
@@ -4246,7 +4269,7 @@
         <v>-0.7933202186310313</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>70</v>
       </c>
@@ -4262,14 +4285,14 @@
       <c r="E72" s="1">
         <v>0.62510555600810924</v>
       </c>
-      <c r="F72" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="G72" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H72" s="5">
-        <v>2.61</v>
+      <c r="F72">
+        <v>0.64547538251221304</v>
+      </c>
+      <c r="G72">
+        <v>2.0369826504103791E-2</v>
+      </c>
+      <c r="H72">
+        <v>3.2586218932662221</v>
       </c>
       <c r="I72" s="1">
         <v>0.64006284410482284</v>
@@ -4299,7 +4322,7 @@
         <v>2.1135512744701588</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -4315,14 +4338,14 @@
       <c r="E73" s="1">
         <v>0.61873908866004057</v>
       </c>
-      <c r="F73" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="G73" s="5">
-        <v>0</v>
-      </c>
-      <c r="H73" s="5">
-        <v>0.17</v>
+      <c r="F73">
+        <v>0.62211842696645858</v>
+      </c>
+      <c r="G73">
+        <v>3.379338306418012E-3</v>
+      </c>
+      <c r="H73">
+        <v>0.54616531723192163</v>
       </c>
       <c r="I73" s="1">
         <v>0.61932050525637949</v>
@@ -4352,7 +4375,7 @@
         <v>5.3086210482905232</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -4368,14 +4391,14 @@
       <c r="E74" s="1">
         <v>0.53400789618137989</v>
       </c>
-      <c r="F74" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="G74" s="5">
-        <v>0</v>
-      </c>
-      <c r="H74" s="5">
-        <v>-0.63</v>
+      <c r="F74">
+        <v>0.54184658638510586</v>
+      </c>
+      <c r="G74">
+        <v>7.838690203725962E-3</v>
+      </c>
+      <c r="H74">
+        <v>1.467897808212089</v>
       </c>
       <c r="I74" s="1">
         <v>0.53244796861317834</v>
@@ -4405,7 +4428,7 @@
         <v>1.745513679335736</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>73</v>
       </c>
@@ -4421,14 +4444,14 @@
       <c r="E75" s="1">
         <v>0.70595238910730163</v>
       </c>
-      <c r="F75" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="G75" s="5">
-        <v>-0.01</v>
-      </c>
-      <c r="H75" s="5">
-        <v>-1.44</v>
+      <c r="F75">
+        <v>0.70450170295448822</v>
+      </c>
+      <c r="G75">
+        <v>-1.450686152813407E-3</v>
+      </c>
+      <c r="H75">
+        <v>-0.2054934830163043</v>
       </c>
       <c r="I75" s="1">
         <v>0.70739305717706036</v>
@@ -4458,7 +4481,7 @@
         <v>-1.130596221760539</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>74</v>
       </c>
@@ -4474,14 +4497,14 @@
       <c r="E76" s="1">
         <v>0.57642769641396041</v>
       </c>
-      <c r="F76" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="G76" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H76" s="5">
-        <v>2.77</v>
+      <c r="F76">
+        <v>0.58242496045406023</v>
+      </c>
+      <c r="G76">
+        <v>5.9972640400998154E-3</v>
+      </c>
+      <c r="H76">
+        <v>1.0404191327740939</v>
       </c>
       <c r="I76" s="1">
         <v>0.54769036088961043</v>
@@ -4511,7 +4534,7 @@
         <v>3.2506878750037882</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -4527,14 +4550,14 @@
       <c r="E77" s="1">
         <v>0.57673708607965102</v>
       </c>
-      <c r="F77" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="G77" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H77" s="5">
-        <v>1.54</v>
+      <c r="F77">
+        <v>0.58118964412788898</v>
+      </c>
+      <c r="G77">
+        <v>4.4525580482379654E-3</v>
+      </c>
+      <c r="H77">
+        <v>0.77202561716709828</v>
       </c>
       <c r="I77" s="1">
         <v>0.5979383994299694</v>
@@ -4564,7 +4587,7 @@
         <v>3.6428914600966822</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -4580,14 +4603,14 @@
       <c r="E78" s="1">
         <v>0.6356702895307812</v>
       </c>
-      <c r="F78" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="G78" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H78" s="5">
-        <v>0.89</v>
+      <c r="F78">
+        <v>0.64200261076702259</v>
+      </c>
+      <c r="G78">
+        <v>6.3323212362413894E-3</v>
+      </c>
+      <c r="H78">
+        <v>0.99616441739247885</v>
       </c>
       <c r="I78" s="1">
         <v>0.64633099686062345</v>
@@ -4617,7 +4640,7 @@
         <v>0.52668878385482387</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>77</v>
       </c>
@@ -4633,14 +4656,14 @@
       <c r="E79" s="1">
         <v>0.63890134279725408</v>
       </c>
-      <c r="F79" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="G79" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H79" s="5">
-        <v>1.38</v>
+      <c r="F79">
+        <v>0.65877431798939245</v>
+      </c>
+      <c r="G79">
+        <v>1.9872975192138379E-2</v>
+      </c>
+      <c r="H79">
+        <v>3.1104920057187559</v>
       </c>
       <c r="I79" s="1">
         <v>0.63289393175215314</v>
@@ -4670,7 +4693,7 @@
         <v>8.4711585105504437</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -4686,14 +4709,14 @@
       <c r="E80" s="1">
         <v>0.58099892519336582</v>
       </c>
-      <c r="F80" s="5">
-        <v>0.61</v>
-      </c>
-      <c r="G80" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H80" s="5">
-        <v>4.26</v>
+      <c r="F80">
+        <v>0.60280472364445237</v>
+      </c>
+      <c r="G80">
+        <v>2.1805798451086541E-2</v>
+      </c>
+      <c r="H80">
+        <v>3.7531564182892798</v>
       </c>
       <c r="I80" s="1">
         <v>0.59121302145178023</v>
@@ -4723,7 +4746,7 @@
         <v>4.8801468077146701</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>79</v>
       </c>
@@ -4739,14 +4762,14 @@
       <c r="E81" s="1">
         <v>0.64654354460843255</v>
       </c>
-      <c r="F81" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="G81" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H81" s="5">
-        <v>3.57</v>
+      <c r="F81">
+        <v>0.66938433922118301</v>
+      </c>
+      <c r="G81">
+        <v>2.2840794612750459E-2</v>
+      </c>
+      <c r="H81">
+        <v>3.532754259666079</v>
       </c>
       <c r="I81" s="1">
         <v>0.68522322992369777</v>
@@ -4776,7 +4799,7 @@
         <v>8.6000458826180388</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>80</v>
       </c>
@@ -4792,14 +4815,14 @@
       <c r="E82" s="1">
         <v>0.60094610713212993</v>
       </c>
-      <c r="F82" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="G82" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="H82" s="5">
-        <v>9.24</v>
+      <c r="F82">
+        <v>0.6593069378634886</v>
+      </c>
+      <c r="G82">
+        <v>5.836083073135867E-2</v>
+      </c>
+      <c r="H82">
+        <v>9.7114916027780982</v>
       </c>
       <c r="I82" s="1">
         <v>0.64822406808720523</v>
@@ -4829,7 +4852,7 @@
         <v>9.7923152552077557</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>81</v>
       </c>
@@ -4845,14 +4868,14 @@
       <c r="E83" s="1">
         <v>0.61011502716393096</v>
       </c>
-      <c r="F83" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="G83" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H83" s="5">
-        <v>3.64</v>
+      <c r="F83">
+        <v>0.63564700795646223</v>
+      </c>
+      <c r="G83">
+        <v>2.5531980792531269E-2</v>
+      </c>
+      <c r="H83">
+        <v>4.1847815011563583</v>
       </c>
       <c r="I83" s="1">
         <v>0.6585916699843074</v>
@@ -4882,7 +4905,7 @@
         <v>0.5905331023363396</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>82</v>
       </c>
@@ -4898,14 +4921,14 @@
       <c r="E84" s="1">
         <v>0.6321723920798954</v>
       </c>
-      <c r="F84" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="G84" s="5">
-        <v>0</v>
-      </c>
-      <c r="H84" s="5">
-        <v>0.11</v>
+      <c r="F84">
+        <v>0.63685297289813858</v>
+      </c>
+      <c r="G84">
+        <v>4.6805808182431852E-3</v>
+      </c>
+      <c r="H84">
+        <v>0.7403962711569414</v>
       </c>
       <c r="I84" s="1">
         <v>0.63668072792922104</v>
@@ -4935,7 +4958,7 @@
         <v>-7.1074475362313763</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>83</v>
       </c>
@@ -4951,14 +4974,14 @@
       <c r="E85" s="1">
         <v>0.59895101581459531</v>
       </c>
-      <c r="F85" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="G85" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="H85" s="5">
-        <v>5.45</v>
+      <c r="F85">
+        <v>0.62703717371266343</v>
+      </c>
+      <c r="G85">
+        <v>2.808615789806812E-2</v>
+      </c>
+      <c r="H85">
+        <v>4.6892245202840028</v>
       </c>
       <c r="I85" s="1">
         <v>0.63532544809516123</v>
@@ -4988,7 +5011,7 @@
         <v>10.506722926090699</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>84</v>
       </c>
@@ -5004,14 +5027,14 @@
       <c r="E86" s="1">
         <v>0.57706576698884782</v>
       </c>
-      <c r="F86" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G86" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H86" s="5">
-        <v>1.25</v>
+      <c r="F86">
+        <v>0.5845654472041768</v>
+      </c>
+      <c r="G86">
+        <v>7.4996802153289854E-3</v>
+      </c>
+      <c r="H86">
+        <v>1.299623135585154</v>
       </c>
       <c r="I86" s="1">
         <v>0.5819769585524377</v>
@@ -5041,7 +5064,7 @@
         <v>10.201498945740321</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>85</v>
       </c>
@@ -5057,14 +5080,14 @@
       <c r="E87" s="1">
         <v>0.46313534371080128</v>
       </c>
-      <c r="F87" s="5">
-        <v>0.41</v>
-      </c>
-      <c r="G87" s="5">
-        <v>-0.05</v>
-      </c>
-      <c r="H87" s="5">
-        <v>-10.43</v>
+      <c r="F87">
+        <v>0.45572752542988171</v>
+      </c>
+      <c r="G87">
+        <v>-7.4078182809196313E-3</v>
+      </c>
+      <c r="H87">
+        <v>-1.5994931895211491</v>
       </c>
       <c r="I87" s="1">
         <v>0.50534384487043893</v>
@@ -5094,7 +5117,7 @@
         <v>12.18563414562658</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>86</v>
       </c>
@@ -5110,14 +5133,14 @@
       <c r="E88" s="1">
         <v>0.53492687564813035</v>
       </c>
-      <c r="F88" s="5">
-        <v>0.54</v>
-      </c>
-      <c r="G88" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H88" s="5">
-        <v>1.64</v>
+      <c r="F88">
+        <v>0.54134123693962521</v>
+      </c>
+      <c r="G88">
+        <v>6.4143612914948633E-3</v>
+      </c>
+      <c r="H88">
+        <v>1.1991099313757729</v>
       </c>
       <c r="I88" s="1">
         <v>0.50570568786068126</v>
@@ -5147,7 +5170,7 @@
         <v>15.5668009089121</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>87</v>
       </c>
@@ -5163,14 +5186,14 @@
       <c r="E89" s="1">
         <v>0.51697723734464773</v>
       </c>
-      <c r="F89" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G89" s="5">
-        <v>-0.02</v>
-      </c>
-      <c r="H89" s="5">
-        <v>-4.2300000000000004</v>
+      <c r="F89">
+        <v>0.52892347780814575</v>
+      </c>
+      <c r="G89">
+        <v>1.1946240463498009E-2</v>
+      </c>
+      <c r="H89">
+        <v>2.3107865492990638</v>
       </c>
       <c r="I89" s="1">
         <v>0.49052000656424</v>
@@ -5200,7 +5223,7 @@
         <v>17.480396556425799</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>88</v>
       </c>
@@ -5216,14 +5239,14 @@
       <c r="E90" s="1">
         <v>0.58487301606334596</v>
       </c>
-      <c r="F90" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="G90" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="H90" s="5">
-        <v>5.46</v>
+      <c r="F90">
+        <v>0.61660639384044491</v>
+      </c>
+      <c r="G90">
+        <v>3.1733377777098948E-2</v>
+      </c>
+      <c r="H90">
+        <v>5.4256867568774947</v>
       </c>
       <c r="I90" s="1">
         <v>0.60505436484377084</v>
@@ -5253,7 +5276,7 @@
         <v>14.22648246512707</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>89</v>
       </c>
@@ -5269,14 +5292,14 @@
       <c r="E91" s="1">
         <v>0.60291016462773783</v>
       </c>
-      <c r="F91" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="G91" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="H91" s="5">
-        <v>5.45</v>
+      <c r="F91">
+        <v>0.63749045590543163</v>
+      </c>
+      <c r="G91">
+        <v>3.4580291277693798E-2</v>
+      </c>
+      <c r="H91">
+        <v>5.7355628261874019</v>
       </c>
       <c r="I91" s="1">
         <v>0.65010617737043885</v>
@@ -5306,7 +5329,7 @@
         <v>6.2521930933331236</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>90</v>
       </c>
@@ -5322,14 +5345,14 @@
       <c r="E92" s="1">
         <v>0.58778054819322723</v>
       </c>
-      <c r="F92" s="5">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G92" s="5">
-        <v>-0.01</v>
-      </c>
-      <c r="H92" s="5">
-        <v>-2.1800000000000002</v>
+      <c r="F92">
+        <v>0.57791330591954537</v>
+      </c>
+      <c r="G92">
+        <v>-9.8672422736818532E-3</v>
+      </c>
+      <c r="H92">
+        <v>-1.6787289582842899</v>
       </c>
       <c r="I92" s="1">
         <v>0.59736577018800352</v>
@@ -5359,7 +5382,7 @@
         <v>-2.347079239063341</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>91</v>
       </c>
@@ -5375,14 +5398,14 @@
       <c r="E93" s="1">
         <v>0.59390413580566048</v>
       </c>
-      <c r="F93" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="G93" s="5">
-        <v>0</v>
-      </c>
-      <c r="H93" s="5">
-        <v>-0.17</v>
+      <c r="F93">
+        <v>0.60024507977587671</v>
+      </c>
+      <c r="G93">
+        <v>6.3409439702162276E-3</v>
+      </c>
+      <c r="H93">
+        <v>1.067671293720563</v>
       </c>
       <c r="I93" s="1">
         <v>0.597710231279037</v>
@@ -5412,7 +5435,7 @@
         <v>0.72650121688281788</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>92</v>
       </c>
@@ -5428,14 +5451,14 @@
       <c r="E94" s="1">
         <v>0.60602135637526722</v>
       </c>
-      <c r="F94" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="G94" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H94" s="5">
-        <v>2.0699999999999998</v>
+      <c r="F94">
+        <v>0.62072033329454146</v>
+      </c>
+      <c r="G94">
+        <v>1.4698976919274241E-2</v>
+      </c>
+      <c r="H94">
+        <v>2.4254882711051158</v>
       </c>
       <c r="I94" s="1">
         <v>0.62665545908542686</v>
@@ -5465,7 +5488,7 @@
         <v>7.0317400861391546</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>93</v>
       </c>
@@ -5481,14 +5504,14 @@
       <c r="E95" s="1">
         <v>0.54760406482764323</v>
       </c>
-      <c r="F95" s="5">
-        <v>0.61</v>
-      </c>
-      <c r="G95" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="H95" s="5">
-        <v>11.22</v>
+      <c r="F95">
+        <v>0.61104711271484202</v>
+      </c>
+      <c r="G95">
+        <v>6.3443047887198789E-2</v>
+      </c>
+      <c r="H95">
+        <v>11.585569202662381</v>
       </c>
       <c r="I95" s="1">
         <v>0.61819764919768216</v>
@@ -5518,7 +5541,7 @@
         <v>11.581435546136589</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>94</v>
       </c>
@@ -5534,14 +5557,14 @@
       <c r="E96" s="1">
         <v>0.57588232055452815</v>
       </c>
-      <c r="F96" s="5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G96" s="5">
-        <v>-0.02</v>
-      </c>
-      <c r="H96" s="5">
-        <v>-3.85</v>
+      <c r="F96">
+        <v>0.55709107173904937</v>
+      </c>
+      <c r="G96">
+        <v>-1.8791248815478782E-2</v>
+      </c>
+      <c r="H96">
+        <v>-3.2630362393108929</v>
       </c>
       <c r="I96" s="1">
         <v>0.5522811249533095</v>
@@ -5571,7 +5594,7 @@
         <v>-3.3984234555214199</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>95</v>
       </c>
@@ -5587,14 +5610,14 @@
       <c r="E97" s="1">
         <v>0.53829132620426501</v>
       </c>
-      <c r="F97" s="5">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G97" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="H97" s="5">
-        <v>4.76</v>
+      <c r="F97">
+        <v>0.55842155553016648</v>
+      </c>
+      <c r="G97">
+        <v>2.0130229325901468E-2</v>
+      </c>
+      <c r="H97">
+        <v>3.739653296635634</v>
       </c>
       <c r="I97" s="1">
         <v>0.51532723172052997</v>
@@ -5624,7 +5647,7 @@
         <v>18.70487035930633</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>96</v>
       </c>
@@ -5640,14 +5663,14 @@
       <c r="E98" s="1">
         <v>0.61006662292185454</v>
       </c>
-      <c r="F98" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="G98" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H98" s="5">
-        <v>3.79</v>
+      <c r="F98">
+        <v>0.63497517753145827</v>
+      </c>
+      <c r="G98">
+        <v>2.4908554609603731E-2</v>
+      </c>
+      <c r="H98">
+        <v>4.0829236797624882</v>
       </c>
       <c r="I98" s="1">
         <v>0.64218346543242077</v>
@@ -5677,7 +5700,7 @@
         <v>3.2379671325912041</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>97</v>
       </c>
@@ -5693,14 +5716,14 @@
       <c r="E99" s="1">
         <v>0.53839176275823986</v>
       </c>
-      <c r="F99" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G99" s="5">
-        <v>-0.04</v>
-      </c>
-      <c r="H99" s="5">
-        <v>-7.3</v>
+      <c r="F99">
+        <v>0.53840008498156311</v>
+      </c>
+      <c r="G99">
+        <v>8.3222233232538301E-6</v>
+      </c>
+      <c r="H99">
+        <v>1.5457560644349701E-3</v>
       </c>
       <c r="I99" s="1">
         <v>0.58825787695206588</v>
@@ -5730,7 +5753,7 @@
         <v>16.330352160697569</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>98</v>
       </c>
@@ -5746,14 +5769,14 @@
       <c r="E100" s="1">
         <v>0.54251418108978122</v>
       </c>
-      <c r="F100" s="5">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G100" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="H100" s="5">
-        <v>5.33</v>
+      <c r="F100">
+        <v>0.58913245737788889</v>
+      </c>
+      <c r="G100">
+        <v>4.6618276288107663E-2</v>
+      </c>
+      <c r="H100">
+        <v>8.5930060287940666</v>
       </c>
       <c r="I100" s="1">
         <v>0.58791852150060075</v>
@@ -5783,7 +5806,7 @@
         <v>21.270848272006109</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>99</v>
       </c>
@@ -5799,14 +5822,14 @@
       <c r="E101" s="1">
         <v>0.5384650981385386</v>
       </c>
-      <c r="F101" s="5">
-        <v>0.54</v>
-      </c>
-      <c r="G101" s="5">
-        <v>0</v>
-      </c>
-      <c r="H101" s="5">
-        <v>0.6</v>
+      <c r="F101">
+        <v>0.533048758570001</v>
+      </c>
+      <c r="G101">
+        <v>-5.4163395685375981E-3</v>
+      </c>
+      <c r="H101">
+        <v>-1.0058849844236439</v>
       </c>
       <c r="I101" s="1">
         <v>0.54416944486532337</v>
@@ -5836,7 +5859,7 @@
         <v>1.487094333186648</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>100</v>
       </c>
@@ -5852,14 +5875,14 @@
       <c r="E102" s="1">
         <v>0.63815362263533604</v>
       </c>
-      <c r="F102" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="G102" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="H102" s="5">
-        <v>4.8499999999999996</v>
+      <c r="F102">
+        <v>0.66746934843845318</v>
+      </c>
+      <c r="G102">
+        <v>2.931572580311714E-2</v>
+      </c>
+      <c r="H102">
+        <v>4.5938352088411172</v>
       </c>
       <c r="I102" s="1">
         <v>0.66478545626597096</v>
@@ -5889,7 +5912,7 @@
         <v>2.764110854506507</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>101</v>
       </c>
@@ -5905,14 +5928,14 @@
       <c r="E103" s="1">
         <v>0.55239777949257052</v>
       </c>
-      <c r="F103" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="G103" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="H103" s="5">
-        <v>5.93</v>
+      <c r="F103">
+        <v>0.59559914168433314</v>
+      </c>
+      <c r="G103">
+        <v>4.3201362191762627E-2</v>
+      </c>
+      <c r="H103">
+        <v>7.8206980179115053</v>
       </c>
       <c r="I103" s="1">
         <v>0.58914471787613731</v>
@@ -5942,7 +5965,7 @@
         <v>6.754309919377592</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>102</v>
       </c>
@@ -5958,14 +5981,14 @@
       <c r="E104" s="1">
         <v>0.58207031373892137</v>
       </c>
-      <c r="F104" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="G104" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H104" s="5">
-        <v>1</v>
+      <c r="F104">
+        <v>0.59104571314575194</v>
+      </c>
+      <c r="G104">
+        <v>8.9753994068305643E-3</v>
+      </c>
+      <c r="H104">
+        <v>1.5419785539614961</v>
       </c>
       <c r="I104" s="1">
         <v>0.58518566455355969</v>
@@ -5995,7 +6018,7 @@
         <v>-3.9876549521147851E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>103</v>
       </c>
@@ -6011,14 +6034,14 @@
       <c r="E105" s="1">
         <v>0.56277717013147521</v>
       </c>
-      <c r="F105" s="5">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G105" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H105" s="5">
-        <v>1.1599999999999999</v>
+      <c r="F105">
+        <v>0.59444388122904179</v>
+      </c>
+      <c r="G105">
+        <v>3.166671109756658E-2</v>
+      </c>
+      <c r="H105">
+        <v>5.6268649082137872</v>
       </c>
       <c r="I105" s="1">
         <v>0.60910293364918644</v>
@@ -6048,7 +6071,7 @@
         <v>17.107403890698421</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>104</v>
       </c>
@@ -6064,14 +6087,14 @@
       <c r="E106" s="1">
         <v>0.58024401642629342</v>
       </c>
-      <c r="F106" s="5">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G106" s="5">
-        <v>-0.02</v>
-      </c>
-      <c r="H106" s="5">
-        <v>-2.89</v>
+      <c r="F106">
+        <v>0.60761501187326539</v>
+      </c>
+      <c r="G106">
+        <v>2.7370995446971969E-2</v>
+      </c>
+      <c r="H106">
+        <v>4.7171525551524267</v>
       </c>
       <c r="I106" s="1">
         <v>0.60475544012728533</v>
@@ -6101,7 +6124,7 @@
         <v>-0.46118157986996172</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>105</v>
       </c>
@@ -6117,14 +6140,14 @@
       <c r="E107" s="1">
         <v>0.56443243837179291</v>
       </c>
-      <c r="F107" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="G107" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="H107" s="5">
-        <v>6.1</v>
+      <c r="F107">
+        <v>0.59453083224395775</v>
+      </c>
+      <c r="G107">
+        <v>3.0098393872164841E-2</v>
+      </c>
+      <c r="H107">
+        <v>5.33250604075646</v>
       </c>
       <c r="I107" s="1">
         <v>0.58845809025486107</v>
@@ -6154,7 +6177,7 @@
         <v>11.910632545029291</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>106</v>
       </c>
@@ -6170,14 +6193,14 @@
       <c r="E108" s="1">
         <v>0.51345897218455405</v>
       </c>
-      <c r="F108" s="5">
-        <v>0.52</v>
-      </c>
-      <c r="G108" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H108" s="5">
-        <v>2.1</v>
+      <c r="F108">
+        <v>0.52987854100392995</v>
+      </c>
+      <c r="G108">
+        <v>1.6419568819375899E-2</v>
+      </c>
+      <c r="H108">
+        <v>3.1978346292241171</v>
       </c>
       <c r="I108" s="1">
         <v>0.54635678793028397</v>
@@ -6207,7 +6230,7 @@
         <v>15.68395625932169</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>107</v>
       </c>
@@ -6223,14 +6246,14 @@
       <c r="E109" s="1">
         <v>0.59522696144760734</v>
       </c>
-      <c r="F109" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G109" s="5">
-        <v>-0.02</v>
-      </c>
-      <c r="H109" s="5">
-        <v>-2.75</v>
+      <c r="F109">
+        <v>0.62701615399143229</v>
+      </c>
+      <c r="G109">
+        <v>3.1789192543824951E-2</v>
+      </c>
+      <c r="H109">
+        <v>5.3406842436224364</v>
       </c>
       <c r="I109" s="1">
         <v>0.62328027038885525</v>
@@ -6260,7 +6283,7 @@
         <v>13.72169295044001</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>108</v>
       </c>
@@ -6276,14 +6299,14 @@
       <c r="E110" s="1">
         <v>0.56285990330897284</v>
       </c>
-      <c r="F110" s="5">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G110" s="5">
-        <v>0</v>
-      </c>
-      <c r="H110" s="5">
-        <v>0.39</v>
+      <c r="F110">
+        <v>0.59372342056576421</v>
+      </c>
+      <c r="G110">
+        <v>3.0863517256791369E-2</v>
+      </c>
+      <c r="H110">
+        <v>5.4833391178424984</v>
       </c>
       <c r="I110" s="1">
         <v>0.62462474850336125</v>
@@ -6313,7 +6336,7 @@
         <v>17.152370069380449</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>109</v>
       </c>
@@ -6329,14 +6352,14 @@
       <c r="E111" s="1">
         <v>0.57359509283008125</v>
       </c>
-      <c r="F111" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="G111" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H111" s="5">
-        <v>2.34</v>
+      <c r="F111">
+        <v>0.57760054886495182</v>
+      </c>
+      <c r="G111">
+        <v>4.0054560348705692E-3</v>
+      </c>
+      <c r="H111">
+        <v>0.6983072353544566</v>
       </c>
       <c r="I111" s="1">
         <v>0.56396826170692682</v>
@@ -6366,7 +6389,7 @@
         <v>6.6835803744092512</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>110</v>
       </c>
@@ -6382,14 +6405,14 @@
       <c r="E112" s="1">
         <v>0.56368128865516587</v>
       </c>
-      <c r="F112" s="5">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G112" s="5">
-        <v>0</v>
-      </c>
-      <c r="H112" s="5">
-        <v>0.37</v>
+      <c r="F112">
+        <v>0.57454289743675313</v>
+      </c>
+      <c r="G112">
+        <v>1.086160878158726E-2</v>
+      </c>
+      <c r="H112">
+        <v>1.926906037186537</v>
       </c>
       <c r="I112" s="1">
         <v>0.61912676907192488</v>
@@ -6419,7 +6442,7 @@
         <v>2.2723726702968059</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>111</v>
       </c>
@@ -6435,14 +6458,14 @@
       <c r="E113" s="1">
         <v>0.55166175726227196</v>
       </c>
-      <c r="F113" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G113" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="H113" s="5">
-        <v>5.1100000000000003</v>
+      <c r="F113">
+        <v>0.58257346841345981</v>
+      </c>
+      <c r="G113">
+        <v>3.0911711151187848E-2</v>
+      </c>
+      <c r="H113">
+        <v>5.6033811922351093</v>
       </c>
       <c r="I113" s="1">
         <v>0.60412191733512932</v>
@@ -6472,7 +6495,7 @@
         <v>5.8605582716913469</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>112</v>
       </c>
@@ -6488,14 +6511,14 @@
       <c r="E114" s="1">
         <v>0.57411246604240329</v>
       </c>
-      <c r="F114" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G114" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H114" s="5">
-        <v>1.57</v>
+      <c r="F114">
+        <v>0.60076293065583553</v>
+      </c>
+      <c r="G114">
+        <v>2.6650464613432231E-2</v>
+      </c>
+      <c r="H114">
+        <v>4.6420285553360312</v>
       </c>
       <c r="I114" s="1">
         <v>0.5718185454507354</v>
@@ -6525,7 +6548,7 @@
         <v>3.256442600156872</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>113</v>
       </c>
@@ -6541,14 +6564,14 @@
       <c r="E115" s="1">
         <v>0.55132368477918736</v>
       </c>
-      <c r="F115" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="G115" s="5">
-        <v>-0.02</v>
-      </c>
-      <c r="H115" s="5">
-        <v>-3.72</v>
+      <c r="F115">
+        <v>0.4980722148005311</v>
+      </c>
+      <c r="G115">
+        <v>-5.3251469978656263E-2</v>
+      </c>
+      <c r="H115">
+        <v>-9.6588395254566652</v>
       </c>
       <c r="I115" s="1">
         <v>0.55694501397169516</v>
@@ -6578,7 +6601,7 @@
         <v>3.348678481572263</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>114</v>
       </c>
@@ -6594,14 +6617,14 @@
       <c r="E116" s="1">
         <v>0.59483918214139253</v>
       </c>
-      <c r="F116" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="G116" s="5">
-        <v>-0.01</v>
-      </c>
-      <c r="H116" s="5">
-        <v>-0.99</v>
+      <c r="F116">
+        <v>0.57750487904447989</v>
+      </c>
+      <c r="G116">
+        <v>-1.733430309691264E-2</v>
+      </c>
+      <c r="H116">
+        <v>-2.914115884987599</v>
       </c>
       <c r="I116" s="1">
         <v>0.57119560799831115</v>
@@ -6631,7 +6654,7 @@
         <v>-0.95196309022261771</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>115</v>
       </c>
@@ -6647,14 +6670,14 @@
       <c r="E117" s="1">
         <v>0.57217103012002801</v>
       </c>
-      <c r="F117" s="5">
-        <v>0.61</v>
-      </c>
-      <c r="G117" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="H117" s="5">
-        <v>5.85</v>
+      <c r="F117">
+        <v>0.60421643910318323</v>
+      </c>
+      <c r="G117">
+        <v>3.2045408983155221E-2</v>
+      </c>
+      <c r="H117">
+        <v>5.6006696068538888</v>
       </c>
       <c r="I117" s="1">
         <v>0.59444984094431863</v>
@@ -6684,7 +6707,7 @@
         <v>6.2434177734988792</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>116</v>
       </c>
@@ -6700,14 +6723,14 @@
       <c r="E118" s="1">
         <v>0.56568681765309836</v>
       </c>
-      <c r="F118" s="5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G118" s="5">
-        <v>-0.01</v>
-      </c>
-      <c r="H118" s="5">
-        <v>-2.5099999999999998</v>
+      <c r="F118">
+        <v>0.5757529853080996</v>
+      </c>
+      <c r="G118">
+        <v>1.0066167655001229E-2</v>
+      </c>
+      <c r="H118">
+        <v>1.779459471366754</v>
       </c>
       <c r="I118" s="1">
         <v>0.60613254634187719</v>
@@ -6737,7 +6760,7 @@
         <v>13.161235258413139</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>117</v>
       </c>
@@ -6753,14 +6776,14 @@
       <c r="E119" s="1">
         <v>0.555205176608355</v>
       </c>
-      <c r="F119" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G119" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H119" s="5">
-        <v>4.01</v>
+      <c r="F119">
+        <v>0.58418559369434253</v>
+      </c>
+      <c r="G119">
+        <v>2.8980417085987531E-2</v>
+      </c>
+      <c r="H119">
+        <v>5.2197670891729624</v>
       </c>
       <c r="I119" s="1">
         <v>0.58844985335686784</v>
@@ -6790,7 +6813,7 @@
         <v>4.7269957516571104</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>118</v>
       </c>
@@ -6806,14 +6829,14 @@
       <c r="E120" s="1">
         <v>0.55900651585805339</v>
       </c>
-      <c r="F120" s="5">
-        <v>0.61</v>
-      </c>
-      <c r="G120" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="H120" s="5">
-        <v>9.6999999999999993</v>
+      <c r="F120">
+        <v>0.61349815139138242</v>
+      </c>
+      <c r="G120">
+        <v>5.449163553332903E-2</v>
+      </c>
+      <c r="H120">
+        <v>9.7479428213258785</v>
       </c>
       <c r="I120" s="1">
         <v>0.59932014747338735</v>
@@ -6843,7 +6866,7 @@
         <v>9.9934684593953946</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>119</v>
       </c>
@@ -6859,14 +6882,14 @@
       <c r="E121" s="1">
         <v>0.53121680117305259</v>
       </c>
-      <c r="F121" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G121" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="H121" s="5">
-        <v>9.17</v>
+      <c r="F121">
+        <v>0.57633652250531353</v>
+      </c>
+      <c r="G121">
+        <v>4.5119721332260943E-2</v>
+      </c>
+      <c r="H121">
+        <v>8.4936548001919192</v>
       </c>
       <c r="I121" s="1">
         <v>0.59557367524397542</v>
@@ -6896,7 +6919,7 @@
         <v>11.500180417418999</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>120</v>
       </c>
@@ -6912,14 +6935,14 @@
       <c r="E122" s="1">
         <v>0.69721388602933976</v>
       </c>
-      <c r="F122" s="5">
-        <v>0.69</v>
-      </c>
-      <c r="G122" s="5">
-        <v>-0.01</v>
-      </c>
-      <c r="H122" s="5">
-        <v>-1.7</v>
+      <c r="F122">
+        <v>0.69423945048315572</v>
+      </c>
+      <c r="G122">
+        <v>-2.9744355461840399E-3</v>
+      </c>
+      <c r="H122">
+        <v>-0.42661737033431252</v>
       </c>
       <c r="I122" s="1">
         <v>0.69670898275005155</v>
@@ -6949,7 +6972,7 @@
         <v>2.3933172521249189</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>121</v>
       </c>
@@ -6965,14 +6988,14 @@
       <c r="E123" s="1">
         <v>0.51849830644334016</v>
       </c>
-      <c r="F123" s="5">
-        <v>0.54</v>
-      </c>
-      <c r="G123" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H123" s="5">
-        <v>4.09</v>
+      <c r="F123">
+        <v>0.54651305348239543</v>
+      </c>
+      <c r="G123">
+        <v>2.8014747039055269E-2</v>
+      </c>
+      <c r="H123">
+        <v>5.4030546852165324</v>
       </c>
       <c r="I123" s="1">
         <v>0.535158244271846</v>
@@ -7002,7 +7025,7 @@
         <v>4.1773180250127986</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>122</v>
       </c>
@@ -7018,14 +7041,14 @@
       <c r="E124" s="1">
         <v>0.55663404394894256</v>
       </c>
-      <c r="F124" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="G124" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="H124" s="5">
-        <v>5.12</v>
+      <c r="F124">
+        <v>0.56805671558689141</v>
+      </c>
+      <c r="G124">
+        <v>1.1422671637948859E-2</v>
+      </c>
+      <c r="H124">
+        <v>2.0520972014059211</v>
       </c>
       <c r="I124" s="1">
         <v>0.56511533180422102</v>
@@ -7055,7 +7078,7 @@
         <v>5.3621953388948738</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>123</v>
       </c>
@@ -7071,14 +7094,14 @@
       <c r="E125" s="1">
         <v>0.58348633031744401</v>
       </c>
-      <c r="F125" s="5">
-        <v>0.61</v>
-      </c>
-      <c r="G125" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="H125" s="5">
-        <v>4.5</v>
+      <c r="F125">
+        <v>0.60491619733804458</v>
+      </c>
+      <c r="G125">
+        <v>2.1429867020600572E-2</v>
+      </c>
+      <c r="H125">
+        <v>3.6727282040937812</v>
       </c>
       <c r="I125" s="1">
         <v>0.61727046730716439</v>
@@ -7108,7 +7131,7 @@
         <v>5.176875836952946</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>124</v>
       </c>
@@ -7124,14 +7147,14 @@
       <c r="E126" s="1">
         <v>0.57328884270361569</v>
       </c>
-      <c r="F126" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G126" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H126" s="5">
-        <v>1.46</v>
+      <c r="F126">
+        <v>0.57786334403473627</v>
+      </c>
+      <c r="G126">
+        <v>4.574501331120584E-3</v>
+      </c>
+      <c r="H126">
+        <v>0.79794005924611244</v>
       </c>
       <c r="I126" s="1">
         <v>0.59628487864964463</v>
@@ -7161,7 +7184,7 @@
         <v>3.8036629669948878</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>125</v>
       </c>
@@ -7177,14 +7200,14 @@
       <c r="E127" s="1">
         <v>0.57978645374930715</v>
       </c>
-      <c r="F127" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="G127" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H127" s="5">
-        <v>2</v>
+      <c r="F127">
+        <v>0.59570250858261875</v>
+      </c>
+      <c r="G127">
+        <v>1.5916054833311599E-2</v>
+      </c>
+      <c r="H127">
+        <v>2.7451581061246242</v>
       </c>
       <c r="I127" s="1">
         <v>0.56330245404164647</v>
@@ -7214,7 +7237,7 @@
         <v>9.4248568133383337</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>126</v>
       </c>
@@ -7230,14 +7253,14 @@
       <c r="E128" s="1">
         <v>0.62278744813611553</v>
       </c>
-      <c r="F128" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="G128" s="5">
-        <v>-0.04</v>
-      </c>
-      <c r="H128" s="5">
-        <v>-5.66</v>
+      <c r="F128">
+        <v>0.61904392959448717</v>
+      </c>
+      <c r="G128">
+        <v>-3.7435185416283549E-3</v>
+      </c>
+      <c r="H128">
+        <v>-0.60109087824939222</v>
       </c>
       <c r="I128" s="1">
         <v>0.60375326140586572</v>
@@ -7267,7 +7290,7 @@
         <v>6.8685486749278466</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>127</v>
       </c>
@@ -7283,14 +7306,14 @@
       <c r="E129" s="1">
         <v>0.5670799902807937</v>
       </c>
-      <c r="F129" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G129" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H129" s="5">
-        <v>1.85</v>
+      <c r="F129">
+        <v>0.57863957732825655</v>
+      </c>
+      <c r="G129">
+        <v>1.1559587047462849E-2</v>
+      </c>
+      <c r="H129">
+        <v>2.038440298649761</v>
       </c>
       <c r="I129" s="1">
         <v>0.58143768257094508</v>
@@ -7320,7 +7343,7 @@
         <v>2.044919282584996</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>128</v>
       </c>
@@ -7336,14 +7359,14 @@
       <c r="E130" s="1">
         <v>0.58209686743314681</v>
       </c>
-      <c r="F130" s="5">
-        <v>0.61</v>
-      </c>
-      <c r="G130" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="H130" s="5">
-        <v>5.12</v>
+      <c r="F130">
+        <v>0.59955141053697925</v>
+      </c>
+      <c r="G130">
+        <v>1.7454543103832432E-2</v>
+      </c>
+      <c r="H130">
+        <v>2.998563311429788</v>
       </c>
       <c r="I130" s="1">
         <v>0.59736811118691191</v>
@@ -7373,7 +7396,7 @@
         <v>5.5649999897131126</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>129</v>
       </c>
@@ -7389,14 +7412,14 @@
       <c r="E131" s="1">
         <v>0.58844996641116332</v>
       </c>
-      <c r="F131" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="G131" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H131" s="5">
-        <v>2.8</v>
+      <c r="F131">
+        <v>0.59902800603658313</v>
+      </c>
+      <c r="G131">
+        <v>1.0578039625419811E-2</v>
+      </c>
+      <c r="H131">
+        <v>1.797610711057241</v>
       </c>
       <c r="I131" s="1">
         <v>0.59301610775295699</v>
@@ -7426,7 +7449,7 @@
         <v>2.4601984846484939</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>130</v>
       </c>
@@ -7442,14 +7465,14 @@
       <c r="E132" s="1">
         <v>0.65710999582952578</v>
       </c>
-      <c r="F132" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="G132" s="5">
-        <v>0</v>
-      </c>
-      <c r="H132" s="5">
-        <v>-0.51</v>
+      <c r="F132">
+        <v>0.6582343500957144</v>
+      </c>
+      <c r="G132">
+        <v>1.124354266188621E-3</v>
+      </c>
+      <c r="H132">
+        <v>0.17110594471618909</v>
       </c>
       <c r="I132" s="1">
         <v>0.66619182694809853</v>
@@ -7479,7 +7502,7 @@
         <v>0.1119575150336664</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>131</v>
       </c>
@@ -7495,14 +7518,14 @@
       <c r="E133" s="1">
         <v>0.59709169088591341</v>
       </c>
-      <c r="F133" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="G133" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H133" s="5">
-        <v>1.1299999999999999</v>
+      <c r="F133">
+        <v>0.59580988598028184</v>
+      </c>
+      <c r="G133">
+        <v>-1.281804905631567E-3</v>
+      </c>
+      <c r="H133">
+        <v>-0.2146747183384406</v>
       </c>
       <c r="I133" s="1">
         <v>0.60073403627047894</v>
@@ -7532,7 +7555,7 @@
         <v>1.2974841273684881</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>132</v>
       </c>
@@ -7548,14 +7571,14 @@
       <c r="E134" s="1">
         <v>0.55461189588824855</v>
       </c>
-      <c r="F134" s="5">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G134" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H134" s="5">
-        <v>2.59</v>
+      <c r="F134">
+        <v>0.58044051303709998</v>
+      </c>
+      <c r="G134">
+        <v>2.5828617148851429E-2</v>
+      </c>
+      <c r="H134">
+        <v>4.657061512805301</v>
       </c>
       <c r="I134" s="1">
         <v>0.59361211435565964</v>
@@ -7585,7 +7608,7 @@
         <v>4.0687903713130096</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>133</v>
       </c>
@@ -7601,14 +7624,14 @@
       <c r="E135" s="1">
         <v>0.63964622541842231</v>
       </c>
-      <c r="F135" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="G135" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="H135" s="5">
-        <v>4.16</v>
+      <c r="F135">
+        <v>0.66242307085674046</v>
+      </c>
+      <c r="G135">
+        <v>2.277684543831815E-2</v>
+      </c>
+      <c r="H135">
+        <v>3.560850440947847</v>
       </c>
       <c r="I135" s="1">
         <v>0.66023045809072411</v>
@@ -7638,7 +7661,7 @@
         <v>4.8002330892521288</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>134</v>
       </c>
@@ -7654,14 +7677,14 @@
       <c r="E136" s="1">
         <v>0.54308097680931211</v>
       </c>
-      <c r="F136" s="5">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G136" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="H136" s="5">
-        <v>4.71</v>
+      <c r="F136">
+        <v>0.56758258328005184</v>
+      </c>
+      <c r="G136">
+        <v>2.4501606470739731E-2</v>
+      </c>
+      <c r="H136">
+        <v>4.5115935775711762</v>
       </c>
       <c r="I136" s="1">
         <v>0.57976746219098341</v>
@@ -7691,7 +7714,7 @@
         <v>5.3464663314046916</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>135</v>
       </c>
@@ -7707,14 +7730,14 @@
       <c r="E137" s="1">
         <v>0.5513060894654549</v>
       </c>
-      <c r="F137" s="5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G137" s="5">
-        <v>0</v>
-      </c>
-      <c r="H137" s="5">
-        <v>-0.35</v>
+      <c r="F137">
+        <v>0.53388294858694763</v>
+      </c>
+      <c r="G137">
+        <v>-1.7423140878507271E-2</v>
+      </c>
+      <c r="H137">
+        <v>-3.1603389136152491</v>
       </c>
       <c r="I137" s="1">
         <v>0.57280319791374645</v>
@@ -7744,7 +7767,7 @@
         <v>5.1307603798838848</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>136</v>
       </c>
@@ -7760,14 +7783,14 @@
       <c r="E138" s="1">
         <v>0.66407550146791317</v>
       </c>
-      <c r="F138" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="G138" s="5">
-        <v>-0.01</v>
-      </c>
-      <c r="H138" s="5">
-        <v>-0.9</v>
+      <c r="F138">
+        <v>0.66573829726056655</v>
+      </c>
+      <c r="G138">
+        <v>1.6627957926533821E-3</v>
+      </c>
+      <c r="H138">
+        <v>0.25039258171365097</v>
       </c>
       <c r="I138" s="1">
         <v>0.66816486359805838</v>
@@ -7797,7 +7820,7 @@
         <v>6.1211584498021363</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>137</v>
       </c>
@@ -7813,14 +7836,14 @@
       <c r="E139" s="1">
         <v>0.54881308336519541</v>
       </c>
-      <c r="F139" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="G139" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="H139" s="5">
-        <v>10</v>
+      <c r="F139">
+        <v>0.60530533809914733</v>
+      </c>
+      <c r="G139">
+        <v>5.6492254733951919E-2</v>
+      </c>
+      <c r="H139">
+        <v>10.29353279764295</v>
       </c>
       <c r="I139" s="1">
         <v>0.61321487134081343</v>
@@ -7850,7 +7873,7 @@
         <v>10.32714062626826</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>138</v>
       </c>
@@ -7866,14 +7889,14 @@
       <c r="E140" s="1">
         <v>0.52908836384944191</v>
       </c>
-      <c r="F140" s="5">
-        <v>0.54</v>
-      </c>
-      <c r="G140" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H140" s="5">
-        <v>2.74</v>
+      <c r="F140">
+        <v>0.53032098085888491</v>
+      </c>
+      <c r="G140">
+        <v>1.2326170094429929E-3</v>
+      </c>
+      <c r="H140">
+        <v>0.23296997130591751</v>
       </c>
       <c r="I140" s="1">
         <v>0.56764293744737904</v>
@@ -7903,7 +7926,7 @@
         <v>8.2206534906894984</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>139</v>
       </c>
@@ -7919,14 +7942,14 @@
       <c r="E141" s="1">
         <v>0.52081577251819278</v>
       </c>
-      <c r="F141" s="5">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G141" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="H141" s="5">
-        <v>7.26</v>
+      <c r="F141">
+        <v>0.5632742557184689</v>
+      </c>
+      <c r="G141">
+        <v>4.245848320027612E-2</v>
+      </c>
+      <c r="H141">
+        <v>8.1523036437597494</v>
       </c>
       <c r="I141" s="1">
         <v>0.56306087651642533</v>
@@ -7956,7 +7979,7 @@
         <v>18.231578176464609</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>140</v>
       </c>
@@ -7972,14 +7995,14 @@
       <c r="E142" s="1">
         <v>0.54381120213803102</v>
       </c>
-      <c r="F142" s="5">
-        <v>0.52</v>
-      </c>
-      <c r="G142" s="5">
-        <v>-0.02</v>
-      </c>
-      <c r="H142" s="5">
-        <v>-4.1900000000000004</v>
+      <c r="F142">
+        <v>0.55978307976821773</v>
+      </c>
+      <c r="G142">
+        <v>1.59718776301867E-2</v>
+      </c>
+      <c r="H142">
+        <v>2.9370262266375118</v>
       </c>
       <c r="I142" s="1">
         <v>0.59581064877751877</v>
@@ -8009,7 +8032,7 @@
         <v>15.560680660845961</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>141</v>
       </c>
@@ -8025,14 +8048,14 @@
       <c r="E143" s="1">
         <v>0.63926753038291884</v>
       </c>
-      <c r="F143" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="G143" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H143" s="5">
-        <v>2.2000000000000002</v>
+      <c r="F143">
+        <v>0.66048028646502355</v>
+      </c>
+      <c r="G143">
+        <v>2.1212756082104711E-2</v>
+      </c>
+      <c r="H143">
+        <v>3.3182908678935021</v>
       </c>
       <c r="I143" s="1">
         <v>0.63435652259794773</v>
@@ -8062,7 +8085,7 @@
         <v>9.0099325712572487</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>142</v>
       </c>
@@ -8078,14 +8101,14 @@
       <c r="E144" s="1">
         <v>0.59298827754057193</v>
       </c>
-      <c r="F144" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="G144" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="H144" s="5">
-        <v>4.33</v>
+      <c r="F144">
+        <v>0.61945040590238154</v>
+      </c>
+      <c r="G144">
+        <v>2.6462128361809611E-2</v>
+      </c>
+      <c r="H144">
+        <v>4.4625044649384469</v>
       </c>
       <c r="I144" s="1">
         <v>0.63750174381666458</v>
@@ -8115,7 +8138,7 @@
         <v>9.2161484752741725</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>143</v>
       </c>
@@ -8131,14 +8154,14 @@
       <c r="E145" s="1">
         <v>0.5523456871369381</v>
       </c>
-      <c r="F145" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G145" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="H145" s="5">
-        <v>4.9000000000000004</v>
+      <c r="F145">
+        <v>0.59002302117396144</v>
+      </c>
+      <c r="G145">
+        <v>3.7677334037023343E-2</v>
+      </c>
+      <c r="H145">
+        <v>6.821332168324207</v>
       </c>
       <c r="I145" s="1">
         <v>0.57471778229524051</v>
@@ -8168,7 +8191,7 @@
         <v>19.791210689105839</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>144</v>
       </c>
@@ -8184,14 +8207,14 @@
       <c r="E146" s="1">
         <v>0.53080743458030943</v>
       </c>
-      <c r="F146" s="5">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G146" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="H146" s="5">
-        <v>6.94</v>
+      <c r="F146">
+        <v>0.56817549756769148</v>
+      </c>
+      <c r="G146">
+        <v>3.7368062987382038E-2</v>
+      </c>
+      <c r="H146">
+        <v>7.0398529773660092</v>
       </c>
       <c r="I146" s="1">
         <v>0.5799862962064557</v>
@@ -8221,7 +8244,7 @@
         <v>13.367654432275399</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>145</v>
       </c>
@@ -8237,14 +8260,14 @@
       <c r="E147" s="1">
         <v>0.58031479755832416</v>
       </c>
-      <c r="F147" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="G147" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H147" s="5">
-        <v>1.64</v>
+      <c r="F147">
+        <v>0.58550461776427809</v>
+      </c>
+      <c r="G147">
+        <v>5.1898202059539322E-3</v>
+      </c>
+      <c r="H147">
+        <v>0.89431119588714825</v>
       </c>
       <c r="I147" s="1">
         <v>0.58243027873435116</v>
@@ -8274,7 +8297,7 @@
         <v>4.3595241440814867</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>146</v>
       </c>
@@ -8290,14 +8313,14 @@
       <c r="E148" s="1">
         <v>0.55548974712391563</v>
       </c>
-      <c r="F148" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="G148" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="H148" s="5">
-        <v>7.73</v>
+      <c r="F148">
+        <v>0.59918032684255929</v>
+      </c>
+      <c r="G148">
+        <v>4.3690579718643652E-2</v>
+      </c>
+      <c r="H148">
+        <v>7.8652360272812372</v>
       </c>
       <c r="I148" s="1">
         <v>0.62631862821921269</v>
@@ -8327,7 +8350,7 @@
         <v>7.9861258309752508</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>147</v>
       </c>
@@ -8343,14 +8366,14 @@
       <c r="E149" s="1">
         <v>0.59227138880381147</v>
       </c>
-      <c r="F149" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="G149" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="H149" s="5">
-        <v>6.42</v>
+      <c r="F149">
+        <v>0.63270410991001746</v>
+      </c>
+      <c r="G149">
+        <v>4.0432721106205993E-2</v>
+      </c>
+      <c r="H149">
+        <v>6.8267219843029148</v>
       </c>
       <c r="I149" s="1">
         <v>0.63713633504958966</v>
@@ -8380,7 +8403,7 @@
         <v>6.9662144092234843</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>148</v>
       </c>
@@ -8396,14 +8419,14 @@
       <c r="E150" s="1">
         <v>0.56887439540844342</v>
       </c>
-      <c r="F150" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="G150" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="H150" s="5">
-        <v>5.3</v>
+      <c r="F150">
+        <v>0.60193716153464139</v>
+      </c>
+      <c r="G150">
+        <v>3.3062766126197962E-2</v>
+      </c>
+      <c r="H150">
+        <v>5.8119624284477398</v>
       </c>
       <c r="I150" s="1">
         <v>0.61097374131426463</v>
@@ -8433,7 +8456,7 @@
         <v>5.8723381592506119</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>149</v>
       </c>
@@ -8449,14 +8472,14 @@
       <c r="E151" s="1">
         <v>0.5642386003214972</v>
       </c>
-      <c r="F151" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G151" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H151" s="5">
-        <v>2.93</v>
+      <c r="F151">
+        <v>0.58494503461827518</v>
+      </c>
+      <c r="G151">
+        <v>2.070643429677799E-2</v>
+      </c>
+      <c r="H151">
+        <v>3.6698010885784269</v>
       </c>
       <c r="I151" s="1">
         <v>0.59260106221956121</v>
@@ -8486,7 +8509,7 @@
         <v>3.7082072479398671</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>150</v>
       </c>
@@ -8502,14 +8525,14 @@
       <c r="E152" s="1">
         <v>0.70195116543910907</v>
       </c>
-      <c r="F152" s="5">
-        <v>0.69</v>
-      </c>
-      <c r="G152" s="5">
-        <v>-0.02</v>
-      </c>
-      <c r="H152" s="5">
-        <v>-2.19</v>
+      <c r="F152">
+        <v>0.6887850975488361</v>
+      </c>
+      <c r="G152">
+        <v>-1.316606789027297E-2</v>
+      </c>
+      <c r="H152">
+        <v>-1.875638725100893</v>
       </c>
       <c r="I152" s="1">
         <v>0.67610319605952052</v>
@@ -8539,7 +8562,7 @@
         <v>2.904778364428374</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>151</v>
       </c>
@@ -8555,14 +8578,14 @@
       <c r="E153" s="1">
         <v>0.56905940971368452</v>
       </c>
-      <c r="F153" s="5">
-        <v>0.61</v>
-      </c>
-      <c r="G153" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="H153" s="5">
-        <v>7.6</v>
+      <c r="F153">
+        <v>0.60819260327275393</v>
+      </c>
+      <c r="G153">
+        <v>3.9133193559069412E-2</v>
+      </c>
+      <c r="H153">
+        <v>6.8768203971460231</v>
       </c>
       <c r="I153" s="1">
         <v>0.60923075672144189</v>
@@ -8592,7 +8615,7 @@
         <v>15.624207359889139</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>152</v>
       </c>
@@ -8608,14 +8631,14 @@
       <c r="E154" s="1">
         <v>0.53362672620906859</v>
       </c>
-      <c r="F154" s="5">
-        <v>0.54</v>
-      </c>
-      <c r="G154" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H154" s="5">
-        <v>2.02</v>
+      <c r="F154">
+        <v>0.54176636104161835</v>
+      </c>
+      <c r="G154">
+        <v>8.1396348325497581E-3</v>
+      </c>
+      <c r="H154">
+        <v>1.525342422478432</v>
       </c>
       <c r="I154" s="1">
         <v>0.5462355955879411</v>
@@ -8645,7 +8668,7 @@
         <v>19.25903520832361</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>153</v>
       </c>
@@ -8661,14 +8684,14 @@
       <c r="E155" s="1">
         <v>0.63299867663035769</v>
       </c>
-      <c r="F155" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G155" s="5">
-        <v>-0.06</v>
-      </c>
-      <c r="H155" s="5">
-        <v>-8.94</v>
+      <c r="F155">
+        <v>0.64379958261682479</v>
+      </c>
+      <c r="G155">
+        <v>1.08009059864671E-2</v>
+      </c>
+      <c r="H155">
+        <v>1.7063078305255821</v>
       </c>
       <c r="I155" s="1">
         <v>0.58402661217387863</v>
@@ -8698,7 +8721,7 @@
         <v>-8.6973134105641634</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>154</v>
       </c>
@@ -8714,14 +8737,14 @@
       <c r="E156" s="1">
         <v>0.55855588167105052</v>
       </c>
-      <c r="F156" s="5">
-        <v>0.54</v>
-      </c>
-      <c r="G156" s="5">
-        <v>-0.01</v>
-      </c>
-      <c r="H156" s="5">
-        <v>-2.57</v>
+      <c r="F156">
+        <v>0.52099009674335606</v>
+      </c>
+      <c r="G156">
+        <v>-3.7565784927694468E-2</v>
+      </c>
+      <c r="H156">
+        <v>-6.7255195335706857</v>
       </c>
       <c r="I156" s="1">
         <v>0.57465263774325015</v>
@@ -8751,7 +8774,7 @@
         <v>14.558246571015291</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>155</v>
       </c>
@@ -8767,14 +8790,14 @@
       <c r="E157" s="1">
         <v>0.62699232593362964</v>
       </c>
-      <c r="F157" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="G157" s="5">
-        <v>-0.02</v>
-      </c>
-      <c r="H157" s="5">
-        <v>-3.62</v>
+      <c r="F157">
+        <v>0.62947726480104271</v>
+      </c>
+      <c r="G157">
+        <v>2.4849388674130779E-3</v>
+      </c>
+      <c r="H157">
+        <v>0.39632683920219491</v>
       </c>
       <c r="I157" s="1">
         <v>0.62499059174614824</v>
@@ -8804,7 +8827,7 @@
         <v>8.7494520473879795</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>156</v>
       </c>
@@ -8820,14 +8843,14 @@
       <c r="E158" s="1">
         <v>0.55108626739331257</v>
       </c>
-      <c r="F158" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="G158" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="H158" s="5">
-        <v>9.5500000000000007</v>
+      <c r="F158">
+        <v>0.59573268720543249</v>
+      </c>
+      <c r="G158">
+        <v>4.464641981211992E-2</v>
+      </c>
+      <c r="H158">
+        <v>8.1015300967852983</v>
       </c>
       <c r="I158" s="1">
         <v>0.61604498142906028</v>
@@ -8857,7 +8880,7 @@
         <v>18.99790932718933</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>157</v>
       </c>
@@ -8873,14 +8896,14 @@
       <c r="E159" s="1">
         <v>0.62661999932509582</v>
       </c>
-      <c r="F159" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="G159" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H159" s="5">
-        <v>3.57</v>
+      <c r="F159">
+        <v>0.64200261076702259</v>
+      </c>
+      <c r="G159">
+        <v>1.538261144192676E-2</v>
+      </c>
+      <c r="H159">
+        <v>2.4548548495890139</v>
       </c>
       <c r="I159" s="1">
         <v>0.61639375297763932</v>
@@ -8910,7 +8933,7 @@
         <v>4.237456297799187</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>158</v>
       </c>
@@ -8926,14 +8949,14 @@
       <c r="E160" s="1">
         <v>0.66473085997553616</v>
       </c>
-      <c r="F160" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="G160" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H160" s="5">
-        <v>2.6</v>
+      <c r="F160">
+        <v>0.67731525420990302</v>
+      </c>
+      <c r="G160">
+        <v>1.258439423436686E-2</v>
+      </c>
+      <c r="H160">
+        <v>1.893156312139622</v>
       </c>
       <c r="I160" s="1">
         <v>0.66327953891504166</v>
@@ -8963,7 +8986,7 @@
         <v>-8.143538177682709E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>159</v>
       </c>
@@ -8979,14 +9002,14 @@
       <c r="E161" s="1">
         <v>0.64450988851979862</v>
       </c>
-      <c r="F161" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="G161" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H161" s="5">
-        <v>1.3</v>
+      <c r="F161">
+        <v>0.6548470716149013</v>
+      </c>
+      <c r="G161">
+        <v>1.0337183095102681E-2</v>
+      </c>
+      <c r="H161">
+        <v>1.603882776545658</v>
       </c>
       <c r="I161" s="1">
         <v>0.65617480148642937</v>
@@ -9016,7 +9039,7 @@
         <v>-1.9231449347067791</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>160</v>
       </c>
@@ -9032,14 +9055,14 @@
       <c r="E162" s="1">
         <v>0.60844187378124759</v>
       </c>
-      <c r="F162" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="G162" s="5">
-        <v>-0.02</v>
-      </c>
-      <c r="H162" s="5">
-        <v>-3.2</v>
+      <c r="F162">
+        <v>0.58263535939222988</v>
+      </c>
+      <c r="G162">
+        <v>-2.580651438901771E-2</v>
+      </c>
+      <c r="H162">
+        <v>-4.2414099852529041</v>
       </c>
       <c r="I162" s="1">
         <v>0.60880654841439941</v>
@@ -9069,7 +9092,7 @@
         <v>-1.82449188887485</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>161</v>
       </c>
@@ -9085,14 +9108,14 @@
       <c r="E163" s="1">
         <v>0.6141576008922276</v>
       </c>
-      <c r="F163" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="G163" s="5">
-        <v>0</v>
-      </c>
-      <c r="H163" s="5">
-        <v>0.8</v>
+      <c r="F163">
+        <v>0.6174516269241167</v>
+      </c>
+      <c r="G163">
+        <v>3.2940260318891079E-3</v>
+      </c>
+      <c r="H163">
+        <v>0.53634865498752393</v>
       </c>
       <c r="I163" s="1">
         <v>0.60548170922989208</v>
@@ -9122,7 +9145,7 @@
         <v>1.220731832434224</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>7</v>
       </c>
@@ -9132,14 +9155,14 @@
       <c r="E164" s="1">
         <v>95.670180412168165</v>
       </c>
-      <c r="F164" s="5">
-        <v>97.33</v>
-      </c>
-      <c r="G164" s="5">
-        <v>1.66</v>
-      </c>
-      <c r="H164" s="5">
-        <v>289.88</v>
+      <c r="F164">
+        <v>98.107928490664534</v>
+      </c>
+      <c r="G164">
+        <v>2.437748078496389</v>
+      </c>
+      <c r="H164">
+        <v>423.00844616503309</v>
       </c>
       <c r="I164" s="1">
         <v>98.598525357842988</v>
@@ -9169,7 +9192,7 @@
         <v>979.83142153915139</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>8</v>
       </c>
@@ -9179,14 +9202,14 @@
       <c r="E165" s="1">
         <v>0.59055666921091454</v>
       </c>
-      <c r="F165" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="G165" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="H165" s="5">
-        <v>1.79</v>
+      <c r="F165">
+        <v>0.60560449685595374</v>
+      </c>
+      <c r="G165">
+        <v>1.504782764503943E-2</v>
+      </c>
+      <c r="H165">
+        <v>2.6111632479323039</v>
       </c>
       <c r="I165" s="1">
         <v>0.60863287257927767</v>
